--- a/INPUT_PREPARATION/result_input/KJE0008/KJE0008_concatenated_file_plate_B.xlsx
+++ b/INPUT_PREPARATION/result_input/KJE0008/KJE0008_concatenated_file_plate_B.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,2801 +424,2801 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CGTGTTTCTTACGACTATCTGTCTTGTTGTTGTTTCGTCTGCGTTTGAGTCTGAAG</t>
+          <t>AACTGAACGGACTGGAAACACTGGTCATAATCATGGTGGCGAATAAGT</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>KITV-S1-5-R</t>
+          <t>phiX174-V2_F2-26</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GCCCTTGACTGCAAGTGCAA</t>
+          <t>TGTTTCCAGTCCGTTCAGTTGTTGCAGTGGAATAGTCAGGTTAAATTTAATGTGACCGT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>f-KITV-S1-5</t>
+          <t>phiX174-V2_F2-27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCCCTTGACTGCAAGTG</t>
+          <t>CATGATTGAATCGCGAGTGGTCGGCAGATTGCGATAAACGGTCACATTAAATTTAACCTGA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T7-KITV-S1-5-F</t>
+          <t>phiX174-V2_F2-28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCCCTT</t>
+          <t>CCACTCGCGATTCAATCATGACTTCGTGATAAAAGATTGAGTGTGAGGTTAT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S1-5</t>
+          <t>phiX174-V2_F2-29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CGTGTTTCTTACGACTATCTGTCTTGTTG</t>
+          <t>CTCAGCGGCAAAAATTAAAATTTTTACCGCTTCGGCGTTATAACCTCACACTCAATCTTTTATCA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>r-KITV-S1-5</t>
+          <t>phiX174-V2_F2-30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGGCTGATCACACCTACACTAAACACACACAGACACGTTAGAGTAGAGCGCCCTG</t>
+          <t>AAAAATTTTAATTTTTGCCGCTGAGGGGTTGACCAAGCGAAGCGCGGTAGGTTTTCT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KITV-S1-3-F1</t>
+          <t>phiX174-V2_F2-31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GTGTACGGTGGCGCTAACACCGCAACCTGGTTTTTCCAGGGCGCTCTACTCTAACG</t>
+          <t>AAGTCTGAAACATGATTAAACTCCTAAGCAGAAAACCTACCGCGCTTC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KITV-S1-3-R</t>
+          <t>phiX174-V2_F2-32</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GTGTTAGCGCCACCGTACACGAACACGACAAAACTGAATTGGGGGAAAAAGTAAAA</t>
+          <t>AGGAGTTTAATCATGTTTCAGACTTTTATTTCTCGCCATAATTCAAACTTTTT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KITV-S1-3-F2</t>
+          <t>phiX174-V2_F2-33</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AGGCTGATCACACCTACACT</t>
+          <t>ACAGAAGTGAGAACCAGCTTATCAGAAAAAAAGTTTGAATTATGGCGAGAAA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>f-KITV-S1-3</t>
+          <t>phiX174-V2_F2-34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TTTTACTTTTTCCCCCAATTCAGTT</t>
+          <t>ATAAGCTGGTTCTCACTTCTGTTACTCCAGCTTCTTCGGCACCTGTTTTACA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>r-KITV-S1-3</t>
+          <t>phiX174-V2_F2-35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGAGGCTGATCACACCTACACT</t>
+          <t>GTTGACGATGTAGCTTTAGGTGTCTGTAAAACAGGTGCCGAAGA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>T7-KITV-S1-3-F</t>
+          <t>phiX174-V2_F2-36</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGAGGCT</t>
+          <t>CACCTAAAGCTACATCGTCAACGTTATATTTTGATAGTTTGACGGTTAATGCTGGTAATG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S1-3</t>
+          <t>phiX174-V2_F2-37</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GCCGGTGGCAAGTGCATACATCGACAACGAATACCGCTGACTCCCCAAGGAAGT</t>
+          <t>ATGTATCCATCTGAATGCAATGAAGAAAACCACCATTACCAGCATTAACCGTCAA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KITV-S2-5-F1</t>
+          <t>phiX174-V2_F2-38</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TCCTTTCCCCAACTTGCTTCAGGACAAATCCTTACTTCCTTGGGGAGTCAGCG</t>
+          <t>TTCATTGCATTCAGATGGATACATCTGTCAACGCCGCTAATCAGGTTGTTTCTG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KITV-S2-5-R1</t>
+          <t>phiX174-V2_F2-39</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GAAGCAAGTTGGGGAAAGGAAAAAAAACAACAAAAAAGAACAAAAAAAATAGAGAA</t>
+          <t>GGTCGGCATCAAAAGCAATATCAGCACCAACAGAAACAACCTGATTAGCGG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KITV-S2.1-5-F2</t>
+          <t>phiX174-V2_F2-40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GAAGCAAGTTGGGGAAAGGAAAAAAAACAACAAATAAGAACAAAAAAAATAGAGAA</t>
+          <t>ATATTGCTTTTGATGCCGACCCTAAATTTTTTGCCTGTTTGGTTCG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KITV-S2.2-5-F2</t>
+          <t>phiX174-V2_F2-41</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TTGCCATTCTTGTCTTGTCTTAGCAGTTTCTTTCTCTATTTTTTTTGTTCT</t>
+          <t>CGGAACCGAAGAAGACTCAAAGCGAACCAAACAGGCAAAAAATT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KITV-S2-5-R2</t>
+          <t>phiX174-V2_F2-42</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GCCGGTGGCAAGTGCATACA</t>
+          <t>TTGAGTCTTCTTCGGTTCCGACTACCCTCCCGACTGCCTATGATGTTTATCCTTT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>f-KITV-S2-5</t>
+          <t>phiX174-V2_F2-43</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TTGCCATTCTTGTCTTGTCTTAGCAGT</t>
+          <t>AATAACCACCATCATGGCGACCATTCAAAGGATAAACATCATAGGCAGTC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>r-KITV-S2-5</t>
+          <t>phiX174-V2_F2-44</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCCGGTGGCAAGTGCATACA</t>
+          <t>TCGCCATGATGGTGGTTATTATACCGTCAAGGACTGTGTG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>T7-KITV-S2-5-F</t>
+          <t>phiX174-V2_F2-45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCCGG</t>
+          <t>CACACAGTCCTTGACGGTAT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S2-5</t>
+          <t>phiX174-V2_F2-46</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GCTCCTTACACAAAGGCGGGAACGGAGACCGACCCAGGAAAGGTATCGGACACTCGAACA</t>
+          <t>TACCGTCAAGGACTGTGTGACTATTGACGTCCTTCCCCG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KITV-S2.1-3-F1</t>
+          <t>phiX174-V2_F3-1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GCTCCTTACACAAAGGCGGGAACGGAGACCGACCCAGGAAAGGCATCGGACACCCGAACA</t>
+          <t>AACATAAACGTTATTGCCCGGCGTACGGGGAAGGACGTCAATAG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KITV-S2.2-3-F1</t>
+          <t>phiX174-V2_F3-2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AGGTTGAAAAAGGTAGGTGCATTTCTGATGGGTGCGTTCCGTGTTCGAGTGTCCGATACCT</t>
+          <t>CCGGGCAATAACGTTTATGTTGGTTTCATGGTTTGGTCTAACTTTAC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>KITV-S2.1-3-R1</t>
+          <t>phiX174-V2_F3-3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AGATTGAAAAAGGTAGGTGCATTTCTGATGGGTGCGTTCCGTGTTCGGGTGTCCGATGCCT</t>
+          <t>GATTCAGCGAAACCAATCCGCGGCATTTAGTAGCGGTAAAGTTAGACCAAACCATGAAAC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KITV-S2.2-3-R1</t>
+          <t>phiX174-V2_F3-4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GCACCTACCTTTTTCAACCTTTTGTTCTACCCTTTTTTGTTTAATTTCTTTTCCCCTCTTC</t>
+          <t>CGGATTGGTTTCGCTGAATCAGGTTATTAAAGAGATTATTTGTCTCCAGCCACTTAAGT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KITV-S2.1-3-F2</t>
+          <t>phiX174-V2_F3-5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GCACCTACCTTTTTCAATCTTTTGTTCTACCCTTTTTTGTTTAATTTCTTTTCCCCTCTTC</t>
+          <t>AATAGCACCAAACATAAATCACCTCACTTAAGTGGCTGGAGACAAA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>KITV-S2.2-3-F2</t>
+          <t>phiX174-V2_F3-6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ATAAGATAGAGCTCCCTCTAACCCCCAGGCCAGTAGGTGGGGAAGAGGGGAAAAGAAATTA</t>
+          <t>AGGTGATTTATGTTTGGTGCTATTGCTGGCGGTATTGCTTCTGCTCTTGC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>KITV-S2-3-R2</t>
+          <t>phiX174-V2_F3-7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TAGAGGGAGCTCTATCTTATGCTATGACGCCCGGGAAACCGGTTATGGCCGCATGCGTCAC</t>
+          <t>TGACCGCCTCCAAACAATTTAGACATGGCGCCACCAGCAAGAGCAGAAGCAATACC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KITV-S2-3-F3</t>
+          <t>phiX174-V2_F3-8</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ATGCTTAGGTTTTTTCCTTTTTTTGTGTTTTTTTATTGGCCGTGACGCATGCGGCCATAAC</t>
+          <t>AATTGTTTGGAGGCGGTCAAAAAGCCGCCTCCGGTGGCATTCAAGGTGATGTG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KITV-S2-3-R3</t>
+          <t>phiX174-V2_F3-9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AAAGGAAAAAACCTAAGCATAGAAAGCTCCCAACCGATCCTCCATATGGCTGGCAAGTGCT</t>
+          <t>CATCACCCATGCCTACAGTATTGTTATCGGTAGCAAGCACATCACCTTGAATGCCAC</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KITV-S2-3-F4</t>
+          <t>phiX174-V2_F3-10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CCCTTCCGGATCCTCCTAGCTCACCCCACTCACTTGAGGGGGCTTTAGCACTTGCCAGCCATATG</t>
+          <t>ATACTGTAGGCATGGGTGATGCTGGTATTAAATCTGCCATTCAAGGCTCTAATGTTCC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KITV-S2-3-R4</t>
+          <t>phiX174-V2_F3-11</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GCTCCTTACACAAAGGCGGG</t>
+          <t>GCACCAGAAACAAAACTAGGGGCGGCCTCATCAGGGTTAGGAACATTAGAGCCTTGAATGG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>f-KITV-S2-3</t>
+          <t>phiX174-V2_F3-12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CCCTTCCGGATCCTCCTAGC</t>
+          <t>CCCTAGTTTTGTTTCTGGTGCTATGGCTAAAGCTGGTAAAGGACTTC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>r-KITV-S2-3</t>
+          <t>phiX174-V2_F3-13</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCTCCTTACACAAAGGCGGG</t>
+          <t>GCCTGCAACGTACCTTCAAGAAGTCCTTTACCAGCTTTAGC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>T7-KITV-S2-3-F</t>
+          <t>phiX174-V2_F3-14</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCTCCTTACAC</t>
+          <t>TTGAAGGTACGTTGCAGGCTGGCACTTCTGCCGTTTCTGATAAGTTGCTT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S2-3</t>
+          <t>phiX174-V2_F3-15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GACTGCAAGTGCACAGGTTTTGGACCTCGCGCTAGACTCACTTTACAGACTAGAATTGTGAATAG</t>
+          <t>GACTTGCCACCAAGTCCAACCAAATCAAGCAACTTATCAGAAACGGC</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>KITV-S3-5-F</t>
+          <t>phiX174-V2_F3-16</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TTGAAGTTCTCAACAATCGCTTGTAAGTTTTTTTTCCTTTCTTTCCTATTCACAATTCTAGTCTG</t>
+          <t>TTGGACTTGGTGGCAAGTCTGCCGCTGATAAAGGAAAGGATACTCGTG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KITV-S3.1-5-R</t>
+          <t>phiX174-V2_F3-17</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TTAAAGTTCTCAACAATCGTTTGTAAGTTTTTTTTCTATTCACAATTCTAGTCTG</t>
+          <t>GGAAATGCAGCAGCAAGATAATCACGAGTATCCTTTCCTTTATCAG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KITV-S3.2-5-R</t>
+          <t>phiX174-V2_F3-18</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GACTGCAAGTGCACAGGTTT</t>
+          <t>TTATCTTGCTGCTGCATTTCCTGAGCTTAATGCTTGGGAGCG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>f-KITV-S3-5</t>
+          <t>phiX174-V2_F3-19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TTGAAGTTCTCAACAATCGCTTGTAAGT</t>
+          <t>CATACCAGCAGAGGAAGCATCAGCACCAGCACGCTCCCAAGCATTAAGCT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>r-KITV-S3.1-5</t>
+          <t>phiX174-V2_F3-20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TTAAAGTTCTCAACAATCGTTTGTAAGT</t>
+          <t>ATGCTTCCTCTGCTGGTATGGTTGACGCCGGATTTGAGAA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>r-KITV-S3.2-5</t>
+          <t>phiX174-V2_F3-21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGACTGCAAGTGCACAGGTTT</t>
+          <t>TGATTGTCCAGTTGCATTTTAGTAAGCTCTTTTTGATTCTCAAATCCGGCGTCAA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>T7-KITV-S3-5-F</t>
+          <t>phiX174-V2_F3-22</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGACTG</t>
+          <t>ACTAAAATGCAACTGGACAATCAGAAAGAGATTGCCGAGATGCAAAAT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S3-5</t>
+          <t>phiX174-V2_F3-23</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GCCGCGCTTAGGTGACCACATGGAAACGACCCGGACCGTTAGACGGAACAAAGGACAAGG</t>
+          <t>AATGCCAGCAATCTCTTTTTGAGTCTCATTTTGCATCTCGGCAATCTC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>KITV-S3.1-3-F1</t>
+          <t>phiX174-V2_F3-24</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GTTGCGCTTACGTGACCACACGGAAACGACCCGGACCGTTAGACGGAACAAAGGACAAGG</t>
+          <t>TCAAAAAGAGATTGCTGGCATTCAGTCGGCGACTTCACGCCAGAATACGAA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KITV-S3.2-3-F1</t>
+          <t>phiX174-V2_F3-25</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GTCATTGCTAGGGCGCCAGTGTTTGTCTTGAACTTGTGATCCTTGTCCTTTGTTCCGTCT</t>
+          <t>CATTTTGTGCATATACCTGGTCTTTCGTATTCTGGCGTGAAGT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KITV-S3-3-R1</t>
+          <t>phiX174-V2_F3-26</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ACTGGCGCCCTAGCAATGACTAGGTTGCGGCAAGCGCCACCGCAAACAAAAAAATAGAAAAAA</t>
+          <t>AGACCAGGTATATGCACAAAATGAGATGCTTGCTTATCAACAGAAGG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>KITV-S3-3-F2</t>
+          <t>phiX174-V2_F3-27</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TTCGGTCGCTTCAACTACAGACTTTTATGTTCCATTTTTTCTATTTTTTTGTTT</t>
+          <t>TTTCCATAATAGACGCAACGCGAGCAGTAGACTCCTTCTGTTGATAAGCAAGCAT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>KITV-S3.1-3-R2</t>
+          <t>phiX174-V2_F3-28</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GCCGCGCTTAGGTGACCA</t>
+          <t>GCGTTGCGTCTATTATGGAAAACACCAATCTTTCCAAGCAAC</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>f-KITV-S3.1-3</t>
+          <t>phiX174-V2_F3-29</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GTTGCGCTTACGTGACCACA</t>
+          <t>GAGTAAGCATTTGGCGCATAATCTCGGAAACCTGCTGTTGCTTGGAAAGATTGGTGT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>f-KITV-S3.2-3</t>
+          <t>phiX174-V2_F3-30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TTCGGTCGCTTCAACTACAGACTTTTATG</t>
+          <t>TTATGCGCCAAATGCTTACTCAAGCTCAAACGGCTGGTCAGTATT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>r-KITV-S3.1-3</t>
+          <t>phiX174-V2_F3-31</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TTTTTTCTATTTTTTTGTTTGCGGTGGCG</t>
+          <t>AGTCATTTCTTTGATTTGGTCATTGGTAAAATACTGACCAGCCGTTTGA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>r-KITV-S3.2-3</t>
+          <t>phiX174-V2_F3-32</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCCGCGCTTAGGTGACCA</t>
+          <t>CAATGACCAAATCAAAGAAATGACTCGCAAGGTTAGTGCTGAGGT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>T7-KITV-S3.1-3-F</t>
+          <t>phiX174-V2_F3-33</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGTTGCGCTTACGTGACCACA</t>
+          <t>TACCGCTGATTCTGCGTTTGCTGATGAACTAAGTCAACCTCAGCACTAACCTTGC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>T7-KITV-S3.2-3-F</t>
+          <t>phiX174-V2_F3-34</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGCCGC</t>
+          <t>AAACGCAGAATCAGCGGTATGGCTCTTCTCATATTGGCGCTACTGCAAAGGATA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S3.1-3</t>
+          <t>phiX174-V2_F3-35</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGTTGCGC</t>
+          <t>CCAGAAGCAGCATCAGTGACGACATTAGAAATATCCTTTGCAGTAGCGCC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S3.2-3</t>
+          <t>phiX174-V2_F3-36</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CTCTGAGTTGCAAGTGCTATAGCTCGGAATCCCGTCGCAGACTCAATCGAACGAAAC</t>
+          <t>TCACTGATGCTGCTTCTGGTGTGGTTGATATTTTTCATGGTATTG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>KITV-S4-5-F1</t>
+          <t>phiX174-V2_F3-37</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TAGCAGTAGTTGCAGAGCTGGTTTTGCTATTTGGAGTGTTTCGTTCGATTGAGTCTG</t>
+          <t>CAAGTATCGGCAACAGCTTTATCAATACCATGAAAAATATCAACCACA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>KITV-S4.1-5-R</t>
+          <t>phiX174-V2_F3-38</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TAGCAATAGTTGCAGAGCTGGTTTTGCTATTTGGAGTGTTTCGTTCGATTGAGTCTG</t>
+          <t>ATAAAGCTGTTGCCGATACTTGGAACAATTTCTGGAAAGACGGTAAAGCT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>KITV-S4.2-5-R</t>
+          <t>phiX174-V2_F3-39</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CAGCTCTGCAACTACTGCTAGAGACAGACGGATTTGTGGGAGTACCAACAACAACA</t>
+          <t>CCTAGACAAATTAGAGCCAATACCATCAGCTTTACCGTCTTTCCAGAA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>KITV-S4.1-5-F2</t>
+          <t>phiX174-V2_F3-40</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CAGCTCTGCAACTATTGCTAGAGACAGACGGATTTGTGGGAGTACCAACAACAACA</t>
+          <t>GGTATTGGCTCTAATTTGTCTAGGAAATAACCGTCAGGATTGACACCCTCCCAATTGTATGTT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>KITV-S4.2-5-F2</t>
+          <t>phiX174-V2_F3-41</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CTCTGAGTTGCAAGTGCTATAG</t>
+          <t>AAAAAGCCTCCAAGATTTGGAGGCATGAAAACATACAATTGGGAGGGTGT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>f-KITV-S4-5</t>
+          <t>phiX174-V2_F3-42</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TGTTGTTGTTGGTACTCCCA</t>
+          <t>CTCCAAATCTTGGAGGCTTTTTTATGGTTCGTTCTTATTACCCTTCTGAATGTCACGCT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>r-KITV-S4-5</t>
+          <t>phiX174-V2_F3-43</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGCTCTGAGTTGCAAGTGCTATAG</t>
+          <t>AGGTTTAAGAGCCTCGATACGCTCAAAGTCAAAATAATCAGCGTGACATTCAGAAGGG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>T7-KITV-S4-5-F</t>
+          <t>phiX174-V2_F3-44</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGCTCTGAG</t>
+          <t>CGTATCGAGGCTCTTAAACCTGCTATTGAGGCTTGTGGCATTTCTACTCTTTCTCAATC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S4-5</t>
+          <t>phiX174-V2_F3-45</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GGGGTTTCGTTCACGCCGGAAAAGACGAAAAACAAACCCATCCCCGCTAGCAGCGGCGG</t>
+          <t>ATGCGGTTATCCATCTGCTTATGGAAGCCAAGCATTGGGGATTGAGAAAGAGTAGAAATGCCA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>KITV-S4-3-F1</t>
+          <t>phiX174-V2_F3-46</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CGTAGTGTTCCGTTTCCTGCAGCTCCGCGGCCCCATTCCCCGCCGCTGCTAGCGGGGAT</t>
+          <t>AGCAGATGGATAACCGCATCAAGCTCTTGGAAGAGATTCTGT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>KITV-S4-3-R1</t>
+          <t>phiX174-V2_F4-1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GCAGGAAACGGAACACTACGCCCCCAAGGGGGTTGCGGAGGTAGCGTAACCGCACAAAA</t>
+          <t>TATCGAACTCAACGCCCTGCATACGAAAAGACAGAATCTCTTCCAAGAGCTT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>KITV-S4-3-F2</t>
+          <t>phiX174-V2_F4-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TCCGGAGAAGACGATTTTTGTGCCACTTTTTATTTCTTTTTTTGTGCGGTTACGCTACC</t>
+          <t>CAGGGCGTTGAGTTCGATAATGGTGATATGTATGTTGACGGCCA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KITV-S4-3-R2</t>
+          <t>phiX174-V2_F4-3</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CAAAAATCGTCTTCTCCGGATCGGAGCATGGAGATGGCAAGTGCTTACAGGGGCCTCAA</t>
+          <t>ACAGATACAAACTCATCACGAACGTCAGAAGCAGCCTTATGGCCGTCAACATACATATCA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>KITV-S4-3-F3</t>
+          <t>phiX174-V2_F4-4</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TCCGGAGTATGGAACGAGATCAGGGCACTCACTTGAGGCCCCTGTAAGCACT</t>
+          <t>GTTCGTGATGAGTTTGTATCTGTTACTGAGAAGTTAATGGATGAATTGGCACAATGC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>KITV-S4-3-R3</t>
+          <t>phiX174-V2_F4-5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GGGGTTTCGTTCACGCCGGA</t>
+          <t>ATATCAAGTTGGGGGAGCACATTGTAGCATTGTGCCAATTCATCCA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>f-KITV-S4-3</t>
+          <t>phiX174-V2_F4-6</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TCCGGAGTATGGAACGAGATCAGGG</t>
+          <t>GTGCTCCCCCAACTTGATATTAATAACACTATAGACCACCGCC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>r-KITV-S4-3</t>
+          <t>phiX174-V2_F4-7</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGGGGTTTCGTTCACGCCGGA</t>
+          <t>AAAAACCATTTTTCGTCCCCTTCGGGGCGGTGGTCTATAGTGTTAT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>T7-KITV-S4-3-F</t>
+          <t>phiX174-V2_F4-8</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TAATACGACTCACTATAGGGGGGTTTCGTTC</t>
+          <t>AAGGGGACGAAAAATGGTTTTTAGAGAACGAGAAGACGGTTACG</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>f-T7-KITV-S4-3</t>
+          <t>phiX174-V2_F4-9</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ATGGCGAGCAACTTTACCCAGTTTGTGCTGGTGGATAACGGCGGCACCGGCGATGTG</t>
+          <t>TTAAGAGGGCGTTCAGCAGCCAGCTTGCGGCAAAACTGCGTAACCGTCTTCTCGTTCT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MS2-F1</t>
+          <t>phiX174-V2_F4-10</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CCGCCACGCCGTTCGCAAAGTTGCTCGGCGCCACGGTCACATCGCCGGTGCCGCCGT</t>
+          <t>CTGCTGAACGCCCTCTTAAGGATATTCGCGATGAGTATAATTACCC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MS2-R1</t>
+          <t>phiX174-V2_F4-11</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CTTTGCGAACGGCGTGGCGGAATGGATTAGCAGCAACAGCCGCAGCCAGGCGTATAA</t>
+          <t>TGAACACTCATCCTTAATACCTTTCTTTTTGGGGTAATTATACTCATCGCGAATAT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MS2-F2</t>
+          <t>phiX174-V2_F4-12</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GTTCTGCGCGCTGCTCTGGCGCACGCTGCAGGTCACTTTATACGCCTGGCTGCGGCT</t>
+          <t>GAAAGGTATTAAGGATGAGTGTTCAAGATTGCTGGAGGCCTCCACTATGAA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MS2-R2</t>
+          <t>phiX174-V2_F4-13</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GCCAGAGCAGCGCGCAGAACCGCAAATATACCATTAAAGTGGAAGTGCCGAAAGTGG</t>
+          <t>ACGCTGAATAGCAAAGCCTCTACGCGATTTCATAGTGGAGGCCTCCA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>MS2-F3</t>
+          <t>phiX174-V2_F4-14</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GCCACCGGCAGTTCCACGCCGCCCACGGTCTGGGTCGCCACTTTCGGCACTTCCACT</t>
+          <t>AGGCTTTGCTATTCAGCGTTTGATGAATGCAATGCGACAG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MS2-R3</t>
+          <t>phiX174-V2_F4-15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GGCGTGGAACTGCCGGTGGCGGCGTGGCGCAGCTATCTGAACATGGAACTGACCATT</t>
+          <t>GTGTCAAAAACGATAAACCAACCATCAGCATGAGCCTGTCGCATTGCATTCATCA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MS2-F4</t>
+          <t>phiX174-V2_F4-16</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CAATCAGTTCGCAATCGCTGTTGGTCGCAAAAATCGGAATGGTCAGTTCCATGTTCA</t>
+          <t>GGTTGGTTTATCGTTTTTGACACTCTCACGTTGGCTGACGACCGATTAGAG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MS2-R4</t>
+          <t>phiX174-V2_F4-17</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CAGCGATTGCGAACTGATTGTGAAAGCGATGCAGGGCCTGCTGAAAGATGGCAACCC</t>
+          <t>CGCAAAGCATTGGGATTATCATAAAACGCCTCTAATCGGTCGTCAGCC</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MS2-F5</t>
+          <t>phiX174-V2_F4-18</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ATAAATGCCGCTGTTCGCCGCAATCGCGCTCGGAATCGGGTTGCCATCTTTCAGCAG</t>
+          <t>TGATAATCCCAATGCTTTGCGTGACTATTTTCGTGATATTGGTCGTATGG</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MS2-R5</t>
+          <t>phiX174-V2_F4-19</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ATGGCGAGCAACTTTACCCAGT</t>
+          <t>ATCATTAGCCTTGCGACCCTCGGCAGCAAGAACCATACGACCAATATCACGAAAA</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>f-MS2</t>
+          <t>phiX174-V2_F4-20</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CACCATGGCGAGCAACTTTACC</t>
+          <t>GGGTCGCAAGGCTAATGATTCACACGCCGACTGCTATCAGTATTTTTGT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>f-cacc-MS2</t>
+          <t>phiX174-V2_F4-21</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ATAAATGCCGCTGTTCGCCG</t>
+          <t>AATGAAGACGGCCATTAGCTGTACCATACTCAGGCACACAAAAATACTGATAGCAGTCGG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>r-MS2</t>
+          <t>phiX174-V2_F4-22</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CACCAGCGGTCCGTCGCCGCCTTT</t>
+          <t>AGCTAATGGCCGTCTTCATTTCCATGCGGTGCACTTTAT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1fl_HSTV2_F_CACC</t>
+          <t>phiX174-V2_F4-23</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AGCGGTCCGTCGCCGCCTTT</t>
+          <t>CGCTACCTGTAGGAAGTGTCCGCATAAAGTGCACCGCATGGA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1fl_HSTV2_F</t>
+          <t>phiX174-V2_F4-24</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AGCGGTCCGTCGCCGCCTTTACCGGCGGCGGGCGCCACCTGCTACCTGATTCGTGATGGCGCGCAC</t>
+          <t>GACACTTCCTACAGGTAGCGTTGACCCTAATTTTGGTCGTCGGGTACG</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1HSTV2_F</t>
+          <t>phiX174-V2_F4-25</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GAGTGCGCAGCCAGTTTAAGCAGCCGGTATCTCCGCGCTTAATGACGTGCGCGCCATCACGAATCA</t>
+          <t>ACGTATTTTGCAAGCTATTTAACTGGCGGCGATTGCGTACCCGACGACCAAAAT</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1HSTV2_R</t>
+          <t>phiX174-V2_F4-26</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GAGTGCGCAGCCAGTTTAAG</t>
+          <t>CAGTTAAATAGCTTGCAAAATACGTGGCCTTATGGTTACAGTATGCCCATCG</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1fl_HSTV_R</t>
+          <t>phiX174-V2_F4-27</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CTTAAACTGGCTGCGCACTC</t>
+          <t>AACCAGAACGTGAAAAAGCGTCCTGCGTGTAGCGAACTGCGATGGGCATACTGTAACCA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2fl_HSTV2_F</t>
+          <t>phiX174-V2_F4-28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CTTAAACTGGCTGCGCACTCAAGACAAAGACTGTCCCAATGCAATCCTGTCATACCACCATGACCG</t>
+          <t>CGCTTTTTCACGTTCTGGTTGGTTGTGGCCTGTTGATGCTAAAGGTGAGC</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2HSTV2_F</t>
+          <t>phiX174-V2_F4-29</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GAGTTCGCTAATGGTCGCGGTCTGGCCGGCGCAAATAACATGTTTCCGGTCATGGTGGTATGACAG</t>
+          <t>ACAGCCATATAACTGGTAGCTTTAAGCGGCTCACCTTTAGCATCAACAG</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2HSTV2_R</t>
+          <t>phiX174-V2_F4-30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GAGTTCGCTAATGGTCGCGG</t>
+          <t>AAGCTACCAGTTATATGGCTGTTGGTTTCTATGTGGCTAAATACGTTAACAAAAAG</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2fl_HSTV2_R</t>
+          <t>phiX174-V2_F4-31</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CCGCGACCATTAGCGAACTC</t>
+          <t>GCAGCAAGGTCCATATCTGACTTTTTGTTAACGTATTTAGCCACA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3fl_HSTV2_F</t>
+          <t>phiX174-V2_F4-32</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CCGCGACCATTAGCGAACTCATCGCAGATGTTAGCGATGTGGTATCCGGCGAGGGAGCTTCTGCCG</t>
+          <t>TCAGATATGGACCTTGCTGCTAAAGGTCTAGGAGCTAAAGAATGGAACAACTCAC</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3HSTV2_F</t>
+          <t>phiX174-V2_F4-33</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AGGGCCGTTTTGGTGATGTTCAGGGCCGCTTTGCCCGCTGCCTCCACGGCAGAAGCTCCCTCGCCG</t>
+          <t>GAAGTAGCGACAGCTTGGTTTTTAGTGAGTTGTTCCATTCTTTAGCT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3HSTV2_R</t>
+          <t>phiX174-V2_F4-34</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AGGGCCGTTTTGGTGATGTT</t>
+          <t>ACCAAGCTGTCGCTACTTCCCAAGAAGCTGTTCAGAATCAGAATGAGCC</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3fl_HSTV2_R</t>
+          <t>phiX174-V2_F4-35</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GAACATCACCAAAACGGCCC</t>
+          <t>ATTGTGAGCATTTTCATCCCGAAGTTGCGGCTCATTCTGATTCTGAACAG</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4fl_HSTV2_F</t>
+          <t>phiX174-V2_F4-36</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GAACATCACCAAAACGGCCCTTCTACGTGCCAAGGAAAAATTTTTCAAAACGAAAAATTTTTTCG</t>
+          <t>CGGGATGAAAATGCTCACAATGACAAATCTGTCCACGGAGTGCTTAATCCAACTTAC</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4HSTV2_F</t>
+          <t>phiX174-V2_F4-37</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ACACCCGCACTGGCGTTGACATAGCTTTCGAAAAAATTTTTCGTTTTGAAAAATTTTTCC</t>
+          <t>TATCTGGTTGAACGGCGTCGCGTCGTAACCCAGCTTGGTAAGTTGGATTAAGCACTCCG</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4HSTV2_R</t>
+          <t>phiX174-V2_F4-38</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ACACCCGCACTGGCGTTGAC</t>
+          <t>GACGCCGTTCAACCAGATATTGAAGCAGAACGCAAAAAGA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>4fl_HSTV2_R</t>
+          <t>phiX174-V2_F4-39</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GTCAACGCCAGTGCGGGTGT</t>
+          <t>AGTAACTTTTCCCAGCCTCAATCTCATCTCTCTTTTTGCGTTCTGCTTCAA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>5fl_HSTV2_F</t>
+          <t>phiX174-V2_F4-40</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GTCAACGCCAGTGCGGGTGTGGGTCCGACGGTACTGCGCTGGTCGGCTACATTGGCGGTG</t>
+          <t>TTGAGGCTGGGAAAAGTTACTGTAGCCGACGTTTTGGCGGCGCAACCTGTGACGACAAAT</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5HSTV2_F</t>
+          <t>phiX174-V2_F4-41</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TATAATTGCCGGTGGCAGTCGCAAATGTGCCCCCAGAAGGAGCACCGCCAATGTAGCCGACC</t>
+          <t>TTTTATCGAAGCGCGCATAAATTTGAGCAGATTTGTCGTCACAGGTTGC</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5HSTV2_R</t>
+          <t>phiX174-V2_F4-42</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TATAATTGCCGGTGGCAGTC</t>
+          <t>TTTATGCGCGCTTCGATAAAAATGATTGGCGTATCCAACCTGCA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>5fl_HSTV2_R</t>
+          <t>phiX174-V2_F4-43</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AGCGGTCCGTCGCCGCCTTTACCGGCGGCGGGCGCCACCTGCTACCTGATTCGTG</t>
+          <t>TGCAGGTTGGATACGCCAATCAT</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1HSTV2_F2</t>
+          <t>phiX174-V2_F4-44</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>GCCGGTATCTCCGCGCTTAATGACGTGCGCGCCATCACGAATCAGGTAGCAGGTG</t>
+          <t>CGACGGGCCCGGGATCCGATGAGTTTTATCGCTTCCATGAC</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1HSTV2_R2</t>
+          <t>phiX174-V2_F1_P-F_(pTZ/F)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GCCGGTATCTCCGCGCTTAA</t>
+          <t>CCTCGCGAATGCATCTAGATCCACGGCGCTTTAAAATAGT</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1fl_HSTV2_R2</t>
+          <t>phiX174-V2_F1_P-R_(pTZ/F)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TTAAGCGCGGAGATACCGGC</t>
+          <t>CGACGGGCCCGGGATCCGATACTATTTTAAAGCGCCGTGG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2fl_HSTV2_F2</t>
+          <t>phiX174-V2_F2_P-F_(pTZ/F)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TTAAGCGCGGAGATACCGGCTGCTTAAACTGGCTGCGCACTCAAGACAAAGACTG</t>
+          <t>CCTCGCGAATGCATCTAGATCACACAGTCCTTGACGGTA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2HSTV2_F2</t>
+          <t>phiX174-V2_F2_P-R_(pTZ/F)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TCCGGTCATGGTGGTATGACAGGATTGCATTGGGACAGTCTTTGTCTTGAGTGCG</t>
+          <t>CGACGGGCCCGGGATCCGATTACCGTCAAGGACTGTGTG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2HSTV2_R2</t>
+          <t>phiX174-V2_F3_P-F_(pTZ/F)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TCCGGTCATGGTGGTATGAC</t>
+          <t>CCTCGCGAATGCATCTAGATATGCGGTTATCCATCTGCT</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2fl_HSTV2_R2</t>
+          <t>phiX174-V2_F3_P-R_(pTZ/F)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GTCATACCACCATGACCGGA</t>
+          <t>CGACGGGCCCGGGATCCGATAGCAGATGGATAACCGCAT</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3fl_HSTV2_F2</t>
+          <t>phiX174-V2_F4_P-F_(pTZ/F)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GTCATACCACCATGACCGGAAACATGTTATTTGCGCCGGCCAGACCGCGACCATT</t>
+          <t>CCTCGCGAATGCATCTAGATTGCAGGTTGGATACGC</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3HSTV2_F2</t>
+          <t>phiX174-V2_F4_P-R_(pTZ/F)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GATACCACATCGCTAACATCTGCGATGAGTTCGCTAATGGTCGCGGTCTGGCCGG</t>
+          <t>GATAAAAATGATTGGCGTATCCAACCTGCAGAGTTTTATCGCTTCCATGAC</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3HSTV2_R2</t>
+          <t>phiX174-V2_F1_P-F_T</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GATACCACATCGCTAACATC</t>
+          <t>GCCTCGGTACGGTCAGGCATCCACGGCGCTTTAAAATAGT</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3fl_HSTV2_R2</t>
+          <t>phiX174-V2_F1_P-R_T</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GATGTTAGCGATGTGGTATC</t>
+          <t>TTATTTGAATATCTATAACAACTATTTTAAAGCGCCGTGG</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4fl_HSTV2_F2</t>
+          <t>phiX174-V2_F2_P-F_T</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GATGTTAGCGATGTGGTATCCGGCGAGGGAGCTTCTGCCGTGGAGGCAGCGGGCA</t>
+          <t>ACGGGGAAGGACGTCAATAGTCACACAGTCCTTGACGGTA</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4HSTV2_F2</t>
+          <t>phiX174-V2_F2_P-R_T</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TAGAAGGGCCGTTTTGGTGATGTTCAGGGCCGCTTTGCCCGCTGCCTCCACGGCA</t>
+          <t>TCGCCATGATGGTGGTTATTATACCGTCAAGGACTGTGTG</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4HSTV2_R2</t>
+          <t>phiX174-V2_F3_P-F_T</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TAGAAGGGCCGTTTTGGTGA</t>
+          <t>AGAATCTCTTCCAAGAGCTTGATGCGGTTATCCATCTGCT</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4fl_HSTV2_R2</t>
+          <t>phiX174-V2_F3_P-R_T</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ACATCACCAAAACGGCCCTT</t>
+          <t>CCCCAATGCTTGGCTTCCATAAGCAGATGGATAACCGCAT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>5fl_HSTV2_F2</t>
+          <t>phiX174-V2_F4_P-F_T</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ACATCACCAAAACGGCCCTTCTACGTGCCAAGGAAAAATTTTTCAAAACGAAAAATTTTTTCG</t>
+          <t>AACTTCTGCGTCATGGAAGCGATAAAACTCTGCAGGTTGGATACGC</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DMT ON</t>
+          <t>DMT OFF</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>5HSTV2_F2</t>
+          <t>phiX174-V2_F4_P-R_T</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>GLADYSHAVA</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CGACGGGCCCGGGATCCGATAACTCGCCGCCACTC</t>
+          <t>TGTTGAGTGGCGGCGAGTT</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-F_(pTZ/F)</t>
+          <t>Unnamed sequence_F0-0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3240,7 +3240,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CCTCGCGAATGCATCTAGATTGCATTCGCGGCGTT</t>
+          <t>AACTCGCCGCCACTCAACACCCCGGAGAGTGAAGTCCCGAGC</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-R_(pTZ/F)</t>
+          <t>Unnamed sequence_F0-1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3262,7 +3262,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ATCGGATCCCGGGCCCGTCGACTGCAGAGGCGCGCTTGGCGTAATCATGGTC</t>
+          <t>CACGAATACTGCGAGACCTTGGTCGCGATAAAGCTCGGGACTTCACTCTCC</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3272,19 +3272,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>pRS426G-F2</t>
+          <t>Unnamed sequence_F0-2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ATCTAGATGCATTCGCGAGGTACCGAGCTCCAAGCTTATCGATACCGTCG</t>
+          <t>CAAGGTCTCGCAGTATTCGTGTCAACGCAAAACCACCCTGAACAACTACAA</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3294,19 +3294,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>pRS426G-R2</t>
+          <t>Unnamed sequence_F0-3</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ACCAATACAAGGAGATATTCCC</t>
+          <t>TAATTTCGAAGGCATCGGTGAATTTTTTGTTGTAGTTGTTCAGGGTGGTTTT</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3316,19 +3316,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>N4F6-Fs</t>
+          <t>Unnamed sequence_F0-4</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CATAGGTTGTCATCACAGTG</t>
+          <t>ATTCACCGATGCCTTCGAAATTATGGCCGAAAACTATGAATTTAAAGAA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3338,19 +3338,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>N4F10-Rs</t>
+          <t>Unnamed sequence_F0-5</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GATAAGTGGCTGTTCACAGTTCAAGACGGTAACGTCCTGATTAAC</t>
+          <t>CGCGCAGAAATTCAAGACAAAAAATCTCGTTTTCTTTAAATTCATAGTTTTCGGCCA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3360,19 +3360,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>F6err-1</t>
+          <t>Unnamed sequence_F0-6</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GTTAATCAGGACGTTACCGTCTTGAACTGTGAACAGCCACTTATC</t>
+          <t>TTTTGTCTTGAATTTCTGCGCGCAGCGTCCCTTCTGAAATCACTGCCATTCCCGG</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3382,19 +3382,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>F6err-2</t>
+          <t>Unnamed sequence_F0-7</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CGATATCACCTATCGAGTTCGGCTTTTTGATAACCGGACAG</t>
+          <t>CATGGCAGGCCCTGGATATCTTTCATGCGCGTAACCGGGAATGGCAGTGATTTC</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3404,19 +3404,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>F6err-3</t>
+          <t>Unnamed sequence_F0-8</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CTGTCCGGTTATCAAAAAGCCGAACTCGATAGGTGATATCG</t>
+          <t>ATATCCAGGGCCTGCCATGCATGGGTGACCAGGTCCGTGATATTATTGAA</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3426,19 +3426,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>F6err-4</t>
+          <t>Unnamed sequence_F0-9</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GATTCTACTGATAAAGCCG</t>
+          <t>GGACGATTCACCTTCTTCAATGATTTCTTCAATAATATCACGGACCTGGTC</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3448,19 +3448,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>dCas9-F1</t>
+          <t>Unnamed sequence_F0-10</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CAAAGCAATGAGATTCCC</t>
+          <t>TCATTGAAGAAGGTGAATCGTCCCGCGTCAAAGAGGTGCTGAATGATGAG</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3470,19 +3470,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>dCas9-R1</t>
+          <t>Unnamed sequence_F0-11</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CAAGAGGTTAAAAGTGAGATCTGTG</t>
+          <t>GCCAAAAACAGAGGTAAATTGTTTAAAGCTTTTGTAACGCTCATCATTCAGCACCTCTTTGA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3492,19 +3492,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MGA_WhiA-F</t>
+          <t>Unnamed sequence_F0-12</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>GCTGTTGTTCTTCTAGTTCGTG</t>
+          <t>TTTAAACAATTTACCTCTGTTTTTGGCGTCGGCGTTAAAACATCAGAAAAATGGTACCGCATG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3514,19 +3514,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MGA_WhiA-R</t>
+          <t>Unnamed sequence_F0-13</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GCGATCTTAGCAGTATCAATGG</t>
+          <t>TCCGCTTTCACTTCTTCAACGGTACGCAGGCCCATGCGGTACCATTTTTCTGATG</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3536,19 +3536,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MGA_eno-F</t>
+          <t>Unnamed sequence_F0-14</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ACCTTCATCACCTTTGTTAGTA</t>
+          <t>CGTTGAAGAAGTGAAAGCGGATAAAACCCTGAAGCTCAGTAAAATGCAAAA</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MGA_eno-R</t>
+          <t>Unnamed sequence_F0-15</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TTAAACAAGCCGCAATTAGGTC</t>
+          <t>CGCACGACACAAGATCTTCATAATACAGAAAACCCGCTTTTTGCATTTTACTGAGCTTCAGG</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3580,19 +3580,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MGA_RplC_F</t>
+          <t>Unnamed sequence_F0-16</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TACCCTTCATAACTCTTTGAGC</t>
+          <t>ATGAAGATCTTGTGTCGTGCGTGTCAAAAGCCGAAGCAGACGCCGTGAGTCTCAT</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3602,19 +3602,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MGA_RplC_R</t>
+          <t>Unnamed sequence_F0-17</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TATAGGATCCATGCTAGCTTTTCTAAATCAGG</t>
+          <t>GCAGGAAGGTACAAACGGTGTTTTTGACAATGAGACTCACGGCGTCTG</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3624,19 +3624,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>UhpTM-F</t>
+          <t>Unnamed sequence_F0-18</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TATAGTCGACTTAAGCAACAGTTAACTGTTGA</t>
+          <t>CACCGTTTGTACCTTCCTGCCGGACGCGCTGGTGACGATTACCGGTGG</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>UhpTM-R</t>
+          <t>Unnamed sequence_F0-19</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TATAGCATGCATGCTAGCTTTTCTAAATCAGG</t>
+          <t>ATCGTGACCAATTTTTTTGCCGCGACGAAAGCCACCGGTAATCGTCACCA</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3668,19 +3668,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>UhpTM-MF</t>
+          <t>Unnamed sequence_F0-20</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TATATCTAGATTAAGCAACAGTTAACTGTTGA</t>
+          <t>CGGCAAAAAAATTGGTCACGATATCGACTTTCTCATTACCAACCCAGGCCC</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3690,19 +3690,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>UhpTM-MR</t>
+          <t>Unnamed sequence_F0-21</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TATAGGATCCATGACCCTGGAAGAAGCGCG</t>
+          <t>ATGCAGCAGCTCGTCATCTTCGCGCGGGCCTGGGTTGGTAATGA</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3712,19 +3712,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NADLig-F</t>
+          <t>Unnamed sequence_F0-22</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TATAGTCGACTTACACGAGTTCTTCCGCTT</t>
+          <t>AGATGACGAGCTGCTGCATAAGGGTCTGTTGTTGTACTGTGATAT</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3734,19 +3734,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NADLig-R</t>
+          <t>Unnamed sequence_F0-23</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CTGAAAGGAGGATACTCGAGATGGTTTCTAAAGGTGAAGAATTA</t>
+          <t>GCTCGGCAGCTGTTCTTTCACAAATGTAGATTCAATAATATCACAGTACAACAACAGACCC</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3756,19 +3756,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MaLionG-F</t>
+          <t>Unnamed sequence_F0-24</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TTTTCTGCAGATGTCCATGGTTATTTGTAAAGTTCATCCATTCC</t>
+          <t>GAAAGAACAGCTGCCGAGCCGCAAAGTGGACGCCATGGATC</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3778,19 +3778,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>MaLionG-R</t>
+          <t>Unnamed sequence_F0-25</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ATGACCCTGGAAGAAGCGCGTAAGCGCGTGAATGAACTGCGCG</t>
+          <t>GTACAACTTCAGAATTGCGAAACATTTCTGGAAATGATCCATGGCGTCCACTTTG</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3800,19 +3800,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NAD_Ligase-1</t>
+          <t>Unnamed sequence_F0-26</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>AACATAATAACGGTAGTTATGGTAACGGATCAGATCGCGCAGTTCATTCACGCG</t>
+          <t>TGTTTCGCAATTCTGAAGTTGTACCAACCACGTGTTGATAACTCGTCGTACAATACCTCAAAA</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3822,19 +3822,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NAD_Ligase-2</t>
+          <t>Unnamed sequence_F0-27</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TCCGTTACCATAACTACCGTTATTATGTTCTGGCGGATCCAGAGATCTCGGACGCGGAATACGACC</t>
+          <t>TCCAGTCTTTCACCTCCGCCATATCCAATTTTTTTGAGGTATTGTACGACGAGTT</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3844,19 +3844,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>NAD_Ligase-3</t>
+          <t>Unnamed sequence_F0-28</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GTTCCTCCAATTCTTTCAATTCGCGCAACAGACGGTCGTATTCCGCGTCCGAG</t>
+          <t>GCGGAGGTGAAAGACTGGAAGGCGATTCGTGTTGATCTGGTTATTAC</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>NAD_Ligase-4</t>
+          <t>Unnamed sequence_F0-29</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CGCGAATTGAAAGAATTGGAGGAACGTTTTCCGGAACTGAAGTCACCAGATTCTCCGACCCTG</t>
+          <t>GTACGCGTACTGCTCAAACGGTGTAATAACCAGATCAACACGAATCG</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3888,19 +3888,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>NAD_Ligase-5</t>
+          <t>Unnamed sequence_F0-30</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AAGGTCGCTTCCAACGGACGGGCGCCAACCTGCAGGGTCGGAGAATCTGGTGAC</t>
+          <t>CGTTTGAGCAGTACGCGTACGCATTGCTGGGCTGGACCGGTTCTCGTCAGTT</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3910,19 +3910,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NAD_Ligase-6</t>
+          <t>Unnamed sequence_F0-31</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CGTCCGTTGGAAGCGACCTTCCGTCCAGTGCGCCACCCGACCCGCATGTACAGCTTGGA</t>
+          <t>TACGTTCGTGGGTTGCGTAACGACGCAGGTCACGACCAAACTGACGAGAACCGGTCC</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3932,19 +3932,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NAD_Ligase-7</t>
+          <t>Unnamed sequence_F0-32</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TTCAGTTCATCCAGGTTGAATGCGTTATCCAAGCTGTACATGCGGGTC</t>
+          <t>TACGCAACCCACGAACGTAAAATGATCCTGGATAACCACGC</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3954,19 +3954,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NAD_Ligase-8</t>
+          <t>Unnamed sequence_F0-33</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CGCATTCAACCTGGATGAACTGAAAGCCTTTGAGGAACGTATTGAACGTGCACTTGGC</t>
+          <t>CCCGCTTTCAGGAAAATACGTTTACGACGGTCATACAGCGCGTGGTTATCCAGGATCATTT</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3976,19 +3976,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NAD_Ligase-9</t>
+          <t>Unnamed sequence_F0-34</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CTTGTGCTCGACCGTATATGCAAACGGGCCTTTGCGGCCAAGTGCACGTTCAATACGT</t>
+          <t>ACGTATTTTCCTGAAAGCGGGTAGCGAGGAAGAAATTTTTGCGCAT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3998,19 +3998,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>NAD_Ligase-10</t>
+          <t>Unnamed sequence_F0-35</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TTTGCATATACGGTCGAGCACAAGGTTGATGGTTTGTCAGTTAATCTGTACTATGAGGAAGG</t>
+          <t>TCCCACGGTTCCACATAGTCCAGACCCAGATGCGCAAAAATTTCTTCCTCG</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4020,19 +4020,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NAD_Ligase-11</t>
+          <t>Unnamed sequence_F0-36</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TCGCGCCATAAACCAGCACACCTTCCTCATAGTACAGATTAACTGACAA</t>
+          <t>GACTATGTGGAACCGTGGGAACGCAACGCCGCGAATGCA</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4042,19 +4042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NAD_Ligase-12</t>
+          <t>Unnamed sequence_F0-37</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TGTGCTGGTTTATGGCGCGACCGCCGGCGATGGTGAAGTTGGT</t>
+          <t>TGCATTCGCGGCGTTGCGT</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4064,19 +4064,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>NAD_Ligase-13</t>
+          <t>Unnamed sequence_F0-38</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>AATGGTCGGAATTGTCAGGAGATTTTGCGTAACTTCTTCACCAACTTCACCATCGCCGG</t>
+          <t>CGACGGGCCCGGGATCCGATAACTCGCCGCCACTC</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4086,19 +4086,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>NAD_Ligase-14</t>
+          <t>Unnamed sequence_F0-F_(pTZ/F)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AAAATCTCCTGACAATTCCGACCATTCCACGTCGCCTCAAAGGTGT</t>
+          <t>CCTCGCGAATGCATCTAGATTGCATTCGCGGCGTT</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4108,19 +4108,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NAD_Ligase-15</t>
+          <t>Unnamed sequence_F0-R_(pTZ/F)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>FISUNOV</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CCGCGCACCTCAAGACGTTCCGGAACACCTTTGAGGCGACGTGG</t>
+          <t>ATCGGATCCCGGGCCCGTCGACTGCAGAGGCGCGCTTGGCGTAATCATGGTC</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>NAD_Ligase-16</t>
+          <t>pRS426G-F2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4142,7 +4142,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AACGTCTTGAGGTGCGCGGCGAAGTCTATATGCCGATCGAAGCGTTCCTCCGTCTGAA</t>
+          <t>ATCTAGATGCATTCGCGAGGTACCGAGCTCCAAGCTTATCGATACCGTCG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>NAD_Ligase-17</t>
+          <t>pRS426G-R2</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4164,7 +4164,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GTTCGCCGCGTTCTTCCAATTCCTCATTCAGACGGAGGAACGCTTCG</t>
+          <t>ACCAATACAAGGAGATATTCCC</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>NAD_Ligase-18</t>
+          <t>N4F6-Fs</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4186,7 +4186,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AATTGGAAGAACGCGGCGAACGCATCTTCAAAAACCCACGTAATGCGGCCG</t>
+          <t>CATAGGTTGTCATCACAGTG</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>NAD_Ligase-19</t>
+          <t>N4F10-Rs</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4208,7 +4208,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CTTTCTGACGCAGGCTGCCTGCGGCCGCATTACGTGGGTT</t>
+          <t>GATAAGTGGCTGTTCACAGTTCAAGACGGTAACGTCCTGATTAAC</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>NAD_Ligase-20</t>
+          <t>F6err-1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4230,7 +4230,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AGGCAGCCTGCGTCAGAAAGATCCGCGCATCACCGCAAAACGTGGCCTTC</t>
+          <t>GTTAATCAGGACGTTACCGTCTTGAACTGTGAACAGCCACTTATC</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>NAD_Ligase-21</t>
+          <t>F6err-2</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AGGCCCAGCGCATAAAACGTTGCGCGAAGGCCACGTTTTGCGGTG</t>
+          <t>CGATATCACCTATCGAGTTCGGCTTTTTGATAACCGGACAG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>NAD_Ligase-22</t>
+          <t>F6err-3</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4274,7 +4274,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ACGTTTTATGCGCTGGGCCTGGGTCTGGAAGAGGTTGAACGCGAAGGTGTTGCCACCCA</t>
+          <t>CTGTCCGGTTATCAAAAAGCCGAACTCGATAGGTGATATCG</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>NAD_Ligase-23</t>
+          <t>F6err-4</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4296,7 +4296,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TTTCAGCCAATGAAGCAGCGCGAATTGGGTGGCAACACCTTCGC</t>
+          <t>GATTCTACTGATAAAGCCG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>NAD_Ligase-24</t>
+          <t>dCas9-F1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4318,7 +4318,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GCGCTGCTTCATTGGCTGAAAGAGAAAGGTTTCCCGGTTGAACATGGT</t>
+          <t>CAAAGCAATGAGATTCCC</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>NAD_Ligase-25</t>
+          <t>dCas9-R1</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4340,7 +4340,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CTGCTTCAACGCCTTCTGCACCCACTGCGCGCGCGTAACCATGTTCAACCGGGAAACCT</t>
+          <t>CAAGAGGTTAAAAGTGAGATCTGTG</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>NAD_Ligase-26</t>
+          <t>MGA_WhiA-F</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4362,7 +4362,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>GTGCAGAAGGCGTTGAAGCAGTTTATCAAGATTGGCTGAAAAAGCGTCGTGCACTCCC</t>
+          <t>GCTGTTGTTCTTCTAGTTCGTG</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>NAD_Ligase-27</t>
+          <t>MGA_WhiA-R</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ACCACGCCATCCGCTTCAAACGGGAGTGCACGACGCTTTTTC</t>
+          <t>GCGATCTTAGCAGTATCAATGG</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NAD_Ligase-28</t>
+          <t>MGA_eno-F</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4406,7 +4406,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TTTGAAGCGGATGGCGTGGTCGTGAAACTGGACGAACTTGCCCT</t>
+          <t>ACCTTCATCACCTTTGTTAGTA</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>NAD_Ligase-29</t>
+          <t>MGA_eno-R</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>CGTATAGCCCAGTTCACGCCAGAGGGCAAGTTCGTCCAGTTTCA</t>
+          <t>TTAAACAAGCCGCAATTAGGTC</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NAD_Ligase-30</t>
+          <t>MGA_RplC_F</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TGGCGTGAACTGGGCTATACGGCGCGCGCGCCGCGTTTTGCGATCGCGTATAAATT</t>
+          <t>TACCCTTCATAACTCTTTGAGC</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>NAD_Ligase-31</t>
+          <t>MGA_RplC_R</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4472,7 +4472,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ATCCAGAAGACGCGTTTCTTTTTCTTCCGCTGGAAATTTATACGCGATCGCAAAACGC</t>
+          <t>TATAGGATCCATGCTAGCTTTTCTAAATCAGG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>NAD_Ligase-32</t>
+          <t>UhpTM-F</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4494,7 +4494,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AGAAAAAGAAACGCGTCTTCTGGATGTTGTGTTTCAGGTTGGCCGCA</t>
+          <t>TATAGTCGACTTAAGCAACAGTTAACTGTTGA</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NAD_Ligase-33</t>
+          <t>UhpTM-R</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4516,7 +4516,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GGTTCAAGAATGCCAACCGGCGTCACGCGACCGGTGCGGCCAACCTGAAACACA</t>
+          <t>TATAGCATGCATGCTAGCTTTTCTAAATCAGG</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NAD_Ligase-34</t>
+          <t>UhpTM-MF</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4538,7 +4538,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GCCGGTTGGCATTCTTGAACCGGTTTTCCTGGAAGGCTCAGAGGTGTCACG</t>
+          <t>TATATCTAGATTAAGCAACAGTTAACTGTTGA</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>NAD_Ligase-35</t>
+          <t>UhpTM-MR</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>TCAATGTACGATTCGTTATGCAGGGTGACACGTGACACCTCTGAGCCTTCC</t>
+          <t>TATAGGATCCATGACCCTGGAAGAAGCGCG</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>NAD_Ligase-36</t>
+          <t>NADLig-F</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4582,7 +4582,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CCCTGCATAACGAATCGTACATTGAGGAACTGGATATCCGCATCGGTGACTGGGT</t>
+          <t>TATAGTCGACTTACACGAGTTCTTCCGCTT</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NAD_Ligase-37</t>
+          <t>NADLig-R</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4604,7 +4604,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ACTTCCGGAATAACGCCACCCGCTTTATGAACCAGGACCCAGTCACCGATGCGGA</t>
+          <t>CTGAAAGGAGGATACTCGAGATGGTTTCTAAAGGTGAAGAATTA</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>NAD_Ligase-38</t>
+          <t>MaLionG-F</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4626,7 +4626,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>GGGTGGCGTTATTCCGGAAGTGCTGCGTGTGCTGAAAGAACGCC</t>
+          <t>TTTTCTGCAGATGTCCATGGTTATTTGTAAAGTTCATCCATTCC</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NAD_Ligase-39</t>
+          <t>MaLionG-R</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4648,7 +4648,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ATCGGACGTTCTTCACCGGTGCGGCGTTCTTTCAGCACACGC</t>
+          <t>ATGACCCTGGAAGAAGCGCGTAAGCGCGTGAATGAACTGCGCG</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NAD_Ligase-40</t>
+          <t>NAD_Ligase-1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4670,7 +4670,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CACCGGTGAAGAACGTCCGATTCGTTGGCCGGAAACGTGCCCAGAA</t>
+          <t>AACATAATAACGGTAGTTATGGTAACGGATCAGATCGCGCAGTTCATTCACGCG</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NAD_Ligase-41</t>
+          <t>NAD_Ligase-2</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TTACCTTCTTTCAAAAGGCGGTGGCCACATTCTGGGCACGTTTCCGGC</t>
+          <t>TCCGTTACCATAACTACCGTTATTATGTTCTGGCGGATCCAGAGATCTCGGACGCGGAATACGACC</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NAD_Ligase-42</t>
+          <t>NAD_Ligase-3</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4714,7 +4714,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CCACCGCCTTTTGAAAGAAGGTAAAGTGCACCGCTGCCCAAATCCACTGTGCCCGGCAA</t>
+          <t>GTTCCTCCAATTCTTTCAATTCGCGCAACAGACGGTCGTATTCCGCGTCCGAG</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NAD_Ligase-43</t>
+          <t>NAD_Ligase-4</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4736,7 +4736,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CAAAATGACGAATGGCTTCGAAGCGTTTTGCCGGGCACAGTGGATTT</t>
+          <t>CGCGAATTGAAAGAATTGGAGGAACGTTTTCCGGAACTGAAGTCACCAGATTCTCCGACCCTG</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NAD_Ligase-44</t>
+          <t>NAD_Ligase-5</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4758,7 +4758,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>GCTTCGAAGCCATTCGTCATTTTGCGTCACGCAAAGCGATGGACATCCAGGGCCTGGG</t>
+          <t>AAGGTCGCTTCCAACGGACGGGCGCCAACCTGCAGGGTCGGAGAATCTGGTGAC</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NAD_Ligase-45</t>
+          <t>NAD_Ligase-6</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4780,7 +4780,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GACCTTTTTCCAACAGACGTTCGATAAGTTTCTCGCCCAGGCCCTGGATGTCCA</t>
+          <t>CGTCCGTTGGAAGCGACCTTCCGTCCAGTGCGCCACCCGACCCGCATGTACAGCTTGGA</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>NAD_Ligase-46</t>
+          <t>NAD_Ligase-7</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4802,7 +4802,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TCGAACGTCTGTTGGAAAAAGGTCTGGTTAAAGACGTTGCAGATCTGTATCGC</t>
+          <t>TTCAGTTCATCCAGGTTGAATGCGTTATCCAAGCTGTACATGCGGGTC</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NAD_Ligase-47</t>
+          <t>NAD_Ligase-8</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4824,7 +4824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CCAGGCCCACAAGATCTTCCTTACGCAGGCGATACAGATCTGCAACGTCTTT</t>
+          <t>CGCATTCAACCTGGATGAACTGAAAGCCTTTGAGGAACGTATTGAACGTGCACTTGGC</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>NAD_Ligase-48</t>
+          <t>NAD_Ligase-9</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4846,7 +4846,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>AAGGAAGATCTTGTGGGCCTGGAGCGTATGGGCGAAAAATCTGCA</t>
+          <t>CTTGTGCTCGACCGTATATGCAAACGGGCCTTTGCGGCCAAGTGCACGTTCAATACGT</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>NAD_Ligase-49</t>
+          <t>NAD_Ligase-10</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4868,7 +4868,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CTTTTTCGATTCCTCGATTTCACGCAGCAGGTTCTGTGCAGATTTTTCGCCCATACGC</t>
+          <t>TTTGCATATACGGTCGAGCACAAGGTTGATGGTTTGTCAGTTAATCTGTACTATGAGGAAGG</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>NAD_Ligase-50</t>
+          <t>NAD_Ligase-11</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>GCGTGAAATCGAGGAATCGAAAAAGCGTGGCCTGGAACGCCTGCTGTATGCGTTGGGTCT</t>
+          <t>TCGCGCCATAAACCAGCACACCTTCCTCATAGTACAGATTAACTGACAA</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NAD_Ligase-51</t>
+          <t>NAD_Ligase-12</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AACACTTCGCCGACACCTGGGAGACCCAACGCATACAGCAGG</t>
+          <t>TGTGCTGGTTTATGGCGCGACCGCCGGCGATGGTGAAGTTGGT</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>NAD_Ligase-52</t>
+          <t>NAD_Ligase-13</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4934,7 +4934,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>CCAGGTGTCGGCGAAGTGTTGGCACGTAATCTGGCGGCGCGTTTCGGCAACATGGAC</t>
+          <t>AATGGTCGGAATTGTCAGGAGATTTTGCGTAACTTCTTCACCAACTTCACCATCGCCGG</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NAD_Ligase-53</t>
+          <t>NAD_Ligase-14</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4956,7 +4956,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CAGTGACGCCTCAAGCAAACGGTCCATGTTGCCGAAACGCG</t>
+          <t>AAAATCTCCTGACAATTCCGACCATTCCACGTCGCCTCAAAGGTGT</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NAD_Ligase-54</t>
+          <t>NAD_Ligase-15</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CGTTTGCTTGAGGCGTCACTGGAGGAACTGCTGGAAGTGGAGGAGGT</t>
+          <t>CCGCGCACCTCAAGACGTTCCGGAACACCTTTGAGGCGACGTGG</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>NAD_Ligase-55</t>
+          <t>NAD_Ligase-16</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5000,7 +5000,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>GTTTCCAGGATTGCACGCGCGGTCAGTTCACCCACCTCCTCCACTTCCAGCAGT</t>
+          <t>AACGTCTTGAGGTGCGCGGCGAAGTCTATATGCCGATCGAAGCGTTCCTCCGTCTGAA</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>NAD_Ligase-56</t>
+          <t>NAD_Ligase-17</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5022,7 +5022,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>GCGCGTGCAATCCTGGAAACCCTGAAAGATCCGGCGTTTCGTGATCT</t>
+          <t>GTTCGCCGCGTTCTTCCAATTCCTCATTCAGACGGAGGAACGCTTCG</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>NAD_Ligase-57</t>
+          <t>NAD_Ligase-18</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CATCTCCACGCCCGCTTCCTTCAGGCGGCGCACCAGATCACGAAACGCCGGATCTT</t>
+          <t>AATTGGAAGAACGCGGCGAACGCATCTTCAAAAACCCACGTAATGCGGCCG</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>NAD_Ligase-58</t>
+          <t>NAD_Ligase-19</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5066,7 +5066,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>GGAAGCGGGCGTGGAGATGGAGGCCAAAGAGAAGGGTGGTGAAGCGCTTAAAGGCCT</t>
+          <t>CTTTCTGACGCAGGCTGCCTGCGGCCGCATTACGTGGGTT</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NAD_Ligase-59</t>
+          <t>NAD_Ligase-20</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GGACGCGAGAGTTCGCCTGTGATAACACTCGTCAGGCCTTTAAGCGCTTCACCA</t>
+          <t>AGGCAGCCTGCGTCAGAAAGATCCGCGCATCACCGCAAAACGTGGCCTTC</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NAD_Ligase-60</t>
+          <t>NAD_Ligase-21</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5110,7 +5110,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>CAGGCGAACTCTCGCGTCCACGCGAAGAAGTTAAAGCGCTG</t>
+          <t>AGGCCCAGCGCATAAAACGTTGCGCGAAGGCCACGTTTTGCGGTG</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NAD_Ligase-61</t>
+          <t>NAD_Ligase-22</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>CTATCTGTGACTTTTGCGCCCAGACGACGCAGCAGCGCTTTAACTTCTTCGCGT</t>
+          <t>ACGTTTTATGCGCTGGGCCTGGGTCTGGAAGAGGTTGAACGCGAAGGTGTTGCCACCCA</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>NAD_Ligase-62</t>
+          <t>NAD_Ligase-23</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5154,7 +5154,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CTGGGCGCAAAAGTCACAGATAGTGTGTCACGTAAAACGTCATATCTGGTCGT</t>
+          <t>TTTCAGCCAATGAAGCAGCGCGAATTGGGTGGCAACACCTTCGC</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NAD_Ligase-63</t>
+          <t>NAD_Ligase-24</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GCCTGGGTTTTCGCCTGGATTTTCACCCACGACCAGATATGACGTTTTACGTG</t>
+          <t>GCGCTGCTTCATTGGCTGAAAGAGAAAGGTTTCCCGGTTGAACATGGT</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>NAD_Ligase-64</t>
+          <t>NAD_Ligase-25</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ATCCAGGCGAAAACCCAGGCTCCAAGCTTGAAAAAGCACGTGCG</t>
+          <t>CTGCTTCAACGCCTTCTGCACCCACTGCGCGCGCGTAACCATGTTCAACCGGGAAACCT</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NAD_Ligase-65</t>
+          <t>NAD_Ligase-26</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CCGTCAGTGTTGGAACACCCAACGCACGTGCTTTTTCAAGCTTG</t>
+          <t>GTGCAGAAGGCGTTGAAGCAGTTTATCAAGATTGGCTGAAAAAGCGTCGTGCACTCCC</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>NAD_Ligase-66</t>
+          <t>NAD_Ligase-27</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5242,7 +5242,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>TGGGTGTTCCAACACTGACGGAGGAAGAACTTTACCGTCTGCTGGAGG</t>
+          <t>ACCACGCCATCCGCTTCAAACGGGAGTGCACGACGCTTTTTC</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NAD_Ligase-67</t>
+          <t>NAD_Ligase-28</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>TTACACGAGTTCTTCCGCTTTTTTACCTGTGCGCGCCTCCAGCAGACGGTAAAGTTCT</t>
+          <t>TTTGAAGCGGATGGCGTGGTCGTGAAACTGGACGAACTTGCCCT</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NAD_Ligase-68</t>
+          <t>NAD_Ligase-29</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5286,7 +5286,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ATGCTAGCTTTTCTAAATCAGGTGAGAAAACCAACATTAGAT</t>
+          <t>CGTATAGCCCAGTTCACGCCAGAGGGCAAGTTCGTCCAGTTTCA</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-1</t>
+          <t>NAD_Ligase-30</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CCACATTTTTCTACGAACTTCTAATGGTAAATCTAATGTTGGTTTTCTCAC</t>
+          <t>TGGCGTGAACTGGGCTATACGGCGCGCGCGCCGCGTTTTGCGATCGCGTATAAATT</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-2</t>
+          <t>NAD_Ligase-31</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5330,7 +5330,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>AAGTTCGTAGAAAAATGTGGTTTAAACCATTTATGCAGTCATATTTAGTTGTTTTTAT</t>
+          <t>ATCCAGAAGACGCGTTTCTTTTTCTTCCGCTGGAAATTTATACGCGATCGCAAAACGC</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-3</t>
+          <t>NAD_Ligase-32</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CTGATTAAATACATTGTTAAGTACCCAATAAAAACAACTAAATATGACTGC</t>
+          <t>AGAAAAAGAAACGCGTCTTCTGGATGTTGTGTTTCAGGTTGGCCGCA</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-4</t>
+          <t>NAD_Ligase-33</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>GGTACTTAACAATGTATTTAATCAGAAAGAATTTTAATATCGCTCAAAA</t>
+          <t>GGTTCAAGAATGCCAACCGGCGTCACGCGACCGGTGCGGCCAACCTGAAACACA</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-5</t>
+          <t>NAD_Ligase-34</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5396,7 +5396,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>AACCATAAGTTGAAATCATATCATTTTGAGCGATATTAAAATTCTTT</t>
+          <t>GCCGGTTGGCATTCTTGAACCGGTTTTCCTGGAAGGCTCAGAGGTGTCACG</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-6</t>
+          <t>NAD_Ligase-35</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5418,7 +5418,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>TGATATGATTTCAACTTATGGTTTATCTATGACGCAGCTAGGTATGATCGGTTT</t>
+          <t>TCAATGTACGATTCGTTATGCAGGGTGACACGTGACACCTCTGAGCCTTCC</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-7</t>
+          <t>NAD_Ligase-36</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>CAAGAGTTTTACCAACACCATAAGTGATAGAAAATCCTAAACCGATCATACCTAGC</t>
+          <t>CCCTGCATAACGAATCGTACATTGAGGAACTGGATATCCGCATCGGTGACTGGGT</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-8</t>
+          <t>NAD_Ligase-37</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GGTGTTGGTAAAACTCTTGTTTCATATTACGCTGATGGAAAAAAC</t>
+          <t>ACTTCCGGAATAACGCCACCCGCTTTATGAACCAGGACCCAGTCACCGATGCGGA</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-9</t>
+          <t>NAD_Ligase-38</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AGCTGATAAGATAAGCATGAATGGAAGAAATTGTTTTGTGTTTTTTCCATCAGCGTAA</t>
+          <t>GGGTGGCGTTATTCCGGAAGTGCTGCGTGTGCTGAAAGAACGCC</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-10</t>
+          <t>NAD_Ligase-39</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5506,7 +5506,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>TCATGCTTATCTTATCAGCTATTTGCATGTTAGGATTTTCAG</t>
+          <t>ATCGGACGTTCTTCACCGGTGCGGCGTTCTTTCAGCACACGC</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-11</t>
+          <t>NAD_Ligase-40</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ATGATACTGAACCTGAACCCATTGATGCTGAAAATCCTAACATGCAA</t>
+          <t>CACCGGTGAAGAACGTCCGATTCGTTGGCCGGAAACGTGCCCAGAA</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-12</t>
+          <t>NAD_Ligase-41</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5550,7 +5550,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GGTTCAGGTTCAGTATCATTATTCCTAATGATTGCATTTTATGCTTTATCTGGTTTT</t>
+          <t>TTACCTTCTTTCAAAAGGCGGTGGCCACATTCTGGGCACGTTTCCGGC</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-13</t>
+          <t>NAD_Ligase-42</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5572,7 +5572,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>AATTGTTGAATATGAACATGAACCACCAGTAGATTGAAAAAAACCAGATAAAGCATAAAATG</t>
+          <t>CCACCGCCTTTTGAAAGAAGGTAAAGTGCACCGCTGCCCAAATCCACTGTGCCCGGCAA</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-14</t>
+          <t>NAD_Ligase-43</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5594,7 +5594,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GTTCATGTTCATATTCAACAATTACTAAGTGGACTCCTAGAAGAAAAAGA</t>
+          <t>CAAAATGACGAATGGCTTCGAAGCGTTTTGCCGGGCACAGTGGATTT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-15</t>
+          <t>NAD_Ligase-44</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5616,7 +5616,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>GTTGTGAGAGATGTTCCAAAAACCTAAGAAAGTTCCTCTTTTTCTTCTAGGAGTCC</t>
+          <t>GCTTCGAAGCCATTCGTCATTTTGCGTCACGCAAAGCGATGGACATCCAGGGCCTGGG</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-16</t>
+          <t>NAD_Ligase-45</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TGGAACATCTCTCACAACTTAGGGGGTGCTGGAGCAGCTGGTGTTGCTTTATTT</t>
+          <t>GACCTTTTTCCAACAGACGTTCGATAAGTTTCTCGCCCAGGCCCTGGATGTCCA</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-17</t>
+          <t>NAD_Ligase-46</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5660,7 +5660,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ACGTGTCCATCAAATAAATAATTAGCTCCAAATAAAGCAACACCAGC</t>
+          <t>TCGAACGTCTGTTGGAAAAAGGTCTGGTTAAAGACGTTGCAGATCTGTATCGC</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-18</t>
+          <t>NAD_Ligase-47</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5682,7 +5682,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ATTATTTATTTGATGGACACGTGATTGGAATGTTTATCTTTCCAT</t>
+          <t>CCAGGCCCACAAGATCTTCCTTACGCAGGCGATACAGATCTGCAACGTCTTT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-19</t>
+          <t>NAD_Ligase-48</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CCAATAAACCCAACAATTAATGCGATAATAGATGGAAAGATAAACATTCCAAT</t>
+          <t>AAGGAAGATCTTGTGGGCCTGGAGCGTATGGGCGAAAAATCTGCA</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-20</t>
+          <t>NAD_Ligase-49</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>CATTAATTGTTGGGTTTATTGGACTTAGATACGGTTCAGATTCACCTGAATCATATG</t>
+          <t>CTTTTTCGATTCCTCGATTTCACGCAGCAGGTTCTGTGCAGATTTTTCGCCCATACGC</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-21</t>
+          <t>NAD_Ligase-50</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AAAAGCTCTTCAGCTTTTCCTAAACCATATGATTCAGGTGAATCTG</t>
+          <t>GCGTGAAATCGAGGAATCGAAAAAGCGTGGCCTGGAACGCCTGCTGTATGCGTTGGGTCT</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-22</t>
+          <t>NAD_Ligase-51</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5770,7 +5770,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>GAAAAGCTGAAGAGCTTTTTGGTGAAGAGATCTCAGAAGAAGATAAAGAAAC</t>
+          <t>AACACTTCGCCGACACCTGGGAGACCCAACGCATACAGCAGG</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-23</t>
+          <t>NAD_Ligase-52</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5792,7 +5792,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GCCACTTAGTCATATCAGTAGATTCTGTTTCTTTATCTTCTTCTGAGAT</t>
+          <t>CCAGGTGTCGGCGAAGTGTTGGCACGTAATCTGGCGGCGCGTTTCGGCAACATGGAC</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-24</t>
+          <t>NAD_Ligase-53</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ACTGATATGACTAAGTGGCAAATTTTTGTTGAATACGTTCTT</t>
+          <t>CAGTGACGCCTCAAGCAAACGGTCCATGTTGCCGAAACGCG</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-25</t>
+          <t>NAD_Ligase-54</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ACATAATAACCAAATTACTTTGTTTTTAAGAACGTATTCAACAAAAATTT</t>
+          <t>CGTTTGCTTGAGGCGTCACTGGAGGAACTGCTGGAAGTGGAGGAGGT</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-26</t>
+          <t>NAD_Ligase-55</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5858,7 +5858,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>AAACAAAGTAATTTGGTTATTATGTTTTGCTAATATTTTTCTTTATGTGGTGAGAATTGGT</t>
+          <t>GTTTCCAGGATTGCACGCGCGGTCAGTTCACCCACCTCCTCCACTTCCAGCAGT</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-27</t>
+          <t>NAD_Ligase-56</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5880,7 +5880,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TTGAAAAGCGTATACTGTTGACCATTGATCGATACCAATTCTCACCACATAA</t>
+          <t>GCGCGTGCAATCCTGGAAACCCTGAAAGATCCGGCGTTTCGTGATCT</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-28</t>
+          <t>NAD_Ligase-57</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5902,7 +5902,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CAACAGTATACGCTTTTCAAGAATTAAAATTATCGAAAGCTGTTGCTATTC</t>
+          <t>CATCTCCACGCCCGCTTCCTTCAGGCGGCGCACCAGATCACGAAACGCCGGATCTT</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-29</t>
+          <t>NAD_Ligase-58</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5924,7 +5924,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>TGCTTCAAATAAAGTAAATCCTTGAATAGCAACAGCTTTCG</t>
+          <t>GGAAGCGGGCGTGGAGATGGAGGCCAAAGAGAAGGGTGGTGAAGCGCTTAAAGGCCT</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-30</t>
+          <t>NAD_Ligase-59</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5946,7 +5946,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>AGGATTTACTTTATTTGAAGCAGGTGCTTTAGTAGGTACTCTATTATGGGGATG</t>
+          <t>GGACGCGAGAGTTCGCCTGTGATAACACTCGTCAGGCCTTTAAGCGCTTCACCA</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-31</t>
+          <t>NAD_Ligase-60</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5968,7 +5968,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TCGACCATTTGCTAGATCAGATAGCCATCCCCATAATAGAGTACC</t>
+          <t>CAGGCGAACTCTCGCGTCCACGCGAAGAAGTTAAAGCGCTG</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-32</t>
+          <t>NAD_Ligase-61</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5990,7 +5990,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GATCTAGCAAATGGTCGACGTGGATTAGTTGCATGTATC</t>
+          <t>CTATCTGTGACTTTTGCGCCCAGACGACGCAGCAGCGCTTTAACTTCTTCGCGT</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-33</t>
+          <t>NAD_Ligase-62</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6012,7 +6012,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CACCTAAAGTAGCGATAATTAGAGCTAAAGCGATACATGCAACTAATCCAC</t>
+          <t>CTGGGCGCAAAAGTCACAGATAGTGTGTCACGTAAAACGTCATATCTGGTCGT</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-34</t>
+          <t>NAD_Ligase-63</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6034,7 +6034,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CTAATTATCGCTACTTTAGGTGTTTATCAACATGCATCAAATGAA</t>
+          <t>GCCTGGGTTTTCGCCTGGATTTTCACCCACGACCAGATATGACGTTTTACGTG</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-35</t>
+          <t>NAD_Ligase-64</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>AACCTAAAGCGAATAGAGAAGCTAAATAAATATATTCATTTGATGCATGTTGAT</t>
+          <t>ATCCAGGCGAAAACCCAGGCTCCAAGCTTGAAAAAGCACGTGCG</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-36</t>
+          <t>NAD_Ligase-65</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TTCTCTATTCGCTTTAGGTTTTTTAGTATTCGGTCCTCAGTTATTAATTGGAGT</t>
+          <t>CCGTCAGTGTTGGAACACCCAACGCACGTGCTTTTTCAAGCTTG</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-37</t>
+          <t>NAD_Ligase-66</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>TTGCTTTCTTAGGTACAAATCCAACAGCTGCTACTCCAATTAATAACTGAGGA</t>
+          <t>TGGGTGTTCCAACACTGACGGAGGAAGAACTTTACCGTCTGCTGGAGG</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-38</t>
+          <t>NAD_Ligase-67</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>GATTTGTACCTAAGAAAGCAATTGGAGCAGCTTGCGGGATCAAAGGAACCTTTGCATATCT</t>
+          <t>TTACACGAGTTCTTCCGCTTTTTTACCTGTGCGCGCCTCCAGCAGACGGTAAAGTTCT</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-39</t>
+          <t>NAD_Ligase-68</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6144,7 +6144,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AGTTTAGCAAAAGAATCACCAATTAGATATGCAAAGGTTCCTT</t>
+          <t>ATGCTAGCTTTTCTAAATCAGGTGAGAAAACCAACATTAGAT</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-40</t>
+          <t>UhpT_D388CM_F0-1</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6166,7 +6166,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>GGTGATTCTTTTGCTAAACTAGGTCTTGGAATGATTGCAGA</t>
+          <t>CCACATTTTTCTACGAACTTCTAATGGTAAATCTAATGTTGGTTTTCTCAC</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-41</t>
+          <t>UhpT_D388CM_F0-2</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6188,7 +6188,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>AACCTGTTAAACCAAAAACAGGAGTCCCATCTGCAATCATTCCAAGA</t>
+          <t>AAGTTCGTAGAAAAATGTGGTTTAAACCATTTATGCAGTCATATTTAGTTGTTTTTAT</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-42</t>
+          <t>UhpT_D388CM_F0-3</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6210,7 +6210,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>TGTTTTTGGTTTAACAGGTTGGGCTGGGACGTTTGCAGCATTAGATATTGCTGCTATCGG</t>
+          <t>CTGATTAAATACATTGTTAAGTACCCAATAAAAACAACTAAATATGACTGC</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-43</t>
+          <t>UhpT_D388CM_F0-4</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6232,7 +6232,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ATTGCCATAAGACAGATACAACCGATAGCAGCAATATCT</t>
+          <t>GGTACTTAACAATGTATTTAATCAGAAAGAATTTTAATATCGCTCAAAA</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-44</t>
+          <t>UhpT_D388CM_F0-5</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6254,7 +6254,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TGTATCTGTCTTATGGCAATTGTTGCTGTAATGGAAGAACGTAAAA</t>
+          <t>AACCATAAGTTGAAATCATATCATTTTGAGCGATATTAAAATTCTTT</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-45</t>
+          <t>UhpT_D388CM_F0-6</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6276,7 +6276,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TTAAGCAACAGTTAACTGTTGAATTTTCTTTTCACGTCTGATTTTACGTTCTTCCATTACAG</t>
+          <t>TGATATGATTTCAACTTATGGTTTATCTATGACGCAGCTAGGTATGATCGGTTT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>UhpT_D388CM_F0-46</t>
+          <t>UhpT_D388CM_F0-7</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6298,7 +6298,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ATGGTTTCTAAAGGTGAAGAATTATTTACTGGTGTAGTACCTATCC</t>
+          <t>CAAGAGTTTTACCAACACCATAAGTGATAGAAAATCCTAAACCGATCATACCTAGC</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>MaLionG_myco-1</t>
+          <t>UhpT_D388CM_F0-8</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6320,7 +6320,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>TCACCATCAAGTTCAACAAGGATAGGTACTACACCAGT</t>
+          <t>GGTGTTGGTAAAACTCTTGTTTCATATTACGCTGATGGAAAAAAC</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>MaLionG_myco-2</t>
+          <t>UhpT_D388CM_F0-9</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6342,7 +6342,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TTGTTGAACTTGATGGTGATGTTAACGGACACAAATTTTCTGTTTCAGGGGA</t>
+          <t>AGCTGATAAGATAAGCATGAATGGAAGAAATTGTTTTGTGTTTTTTCCATCAGCGTAA</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MaLionG_myco-3</t>
+          <t>UhpT_D388CM_F0-10</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6364,7 +6364,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>AGTTTACCGTAAGTAGCATCACCTTCTCCTTCCCCTGAAACAGAAAATT</t>
+          <t>TCATGCTTATCTTATCAGCTATTTGCATGTTAGGATTTTCAG</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>MaLionG_myco-4</t>
+          <t>UhpT_D388CM_F0-11</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6386,7 +6386,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>GATGCTACTTACGGTAAACTAACTTTAAAATTTATTTGTACCACGGG</t>
+          <t>ATGATACTGAACCTGAACCCATTGATGCTGAAAATCCTAACATGCAA</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>MaLionG_myco-5</t>
+          <t>UhpT_D388CM_F0-12</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GTAGTAACTAAGGTTGGCCAAGGTACTGGAAGCTTACCCGTGGTACAAATAAATTTT</t>
+          <t>GGTTCAGGTTCAGTATCATTATTCCTAATGATTGCATTTTATGCTTTATCTGGTTTT</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>MaLionG_myco-6</t>
+          <t>UhpT_D388CM_F0-13</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6430,7 +6430,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GGCCAACCTTAGTTACTACATTTGGTTACGGATTAATGTGTTTTGCAAGATATCCTG</t>
+          <t>AATTGTTGAATATGAACATGAACCACCAGTAGATTGAAAAAAACCAGATAAAGCATAAAATG</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>MaLionG_myco-7</t>
+          <t>UhpT_D388CM_F0-14</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6452,7 +6452,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ATTGCAGATTTAAAAAAATCATGTTGTTTCATGTGGTCAGGATATCTTGCAAAACAC</t>
+          <t>GTTCATGTTCATATTCAACAATTACTAAGTGGACTCCTAGAAGAAAAAGA</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MaLionG_myco-8</t>
+          <t>UhpT_D388CM_F0-15</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6474,7 +6474,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ACATGATTTTTTTAAATCTGCAATGCCAGAAGGGTATGTTCAAGAAAGAACTATCTT</t>
+          <t>GTTGTGAGAGATGTTCCAAAAACCTAAGAAAGTTCCTCTTTTTCTTCTAGGAGTCC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>MaLionG_myco-9</t>
+          <t>UhpT_D388CM_F0-16</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CTTCAGCACGAGTCTTATAATTCCCATCGTCTTTAAAAAAGATAGTTCTTTCTTGAACATAC</t>
+          <t>TGGAACATCTCTCACAACTTAGGGGGTGCTGGAGCAGCTGGTGTTGCTTTATTT</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MaLionG_myco-10</t>
+          <t>UhpT_D388CM_F0-17</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6518,7 +6518,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>TTATAAGACTCGTGCTGAAGTTAAGTTCGAAGGAGATACACTTGTTAATAGAATTGA</t>
+          <t>ACGTGTCCATCAAATAAATAATTAGCTCCAAATAAAGCAACACCAGC</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>MaLionG_myco-11</t>
+          <t>UhpT_D388CM_F0-18</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6540,7 +6540,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CTTCCTTAAAGTCAATACCCTTTAATTCAATTCTATTAACAAGTGTATCTC</t>
+          <t>ATTATTTATTTGATGGACACGTGATTGGAATGTTTATCTTTCCAT</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>MaLionG_myco-12</t>
+          <t>UhpT_D388CM_F0-19</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6562,7 +6562,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>AGGGTATTGACTTTAAGGAAGACGGAAATATCTTAGGTCACAAATTAGAATAT</t>
+          <t>CCAATAAACCCAACAATTAATGCGATAATAGATGGAAAGATAAACATTCCAAT</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>MaLionG_myco-13</t>
+          <t>UhpT_D388CM_F0-20</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6584,7 +6584,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AGTTTTCATACCTCTCCAATTATATTCTAATTTGTGACCTAAGATATT</t>
+          <t>CATTAATTGTTGGGTTTATTGGACTTAGATACGGTTCAGATTCACCTGAATCATATG</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>MaLionG_myco-14</t>
+          <t>UhpT_D388CM_F0-21</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6606,7 +6606,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>AATTGGAGAGGTATGAAAACTGTGAAAGTAAACATTACGACACCA</t>
+          <t>AAAAGCTCTTCAGCTTTTCCTAAACCATATGATTCAGGTGAATCTG</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>MaLionG_myco-15</t>
+          <t>UhpT_D388CM_F0-22</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6628,7 +6628,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>TCAGCATCATAAACTGGTCCATCTGGTGTCGTAATGTTTACTT</t>
+          <t>GAAAAGCTGAAGAGCTTTTTGGTGAAGAGATCTCAGAAGAAGATAAAGAAAC</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>MaLionG_myco-16</t>
+          <t>UhpT_D388CM_F0-23</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6650,7 +6650,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GACCAGTTTATGATGCTGATATCGAAATGGTATCAGTTAGAG</t>
+          <t>GCCACTTAGTCATATCAGTAGATTCTGTTTCTTTATCTTCTTCTGAGAT</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>MaLionG_myco-17</t>
+          <t>UhpT_D388CM_F0-24</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6672,7 +6672,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>AATTCCTAGATCACCTGATTCAGCTCTAACTGATACCATTTCGA</t>
+          <t>ACTGATATGACTAAGTGGCAAATTTTTGTTGAATACGTTCTT</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>MaLionG_myco-18</t>
+          <t>UhpT_D388CM_F0-25</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6694,7 +6694,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>GAATCAGGTGATCTAGGAATTTTACCTGGTCATATTCCGACAAA</t>
+          <t>ACATAATAACCAAATTACTTTGTTTTTAAGAACGTATTCAACAAAAATTT</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>MaLionG_myco-19</t>
+          <t>UhpT_D388CM_F0-26</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6716,7 +6716,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>CTTTAATCTAACTGCTCCGATTTTTAAAGGTGCTTTTGTCGGAATATGACCAG</t>
+          <t>AAACAAAGTAATTTGGTTATTATGTTTTGCTAATATTTTTCTTTATGTGGTGAGAATTGGT</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>MaLionG_myco-20</t>
+          <t>UhpT_D388CM_F0-27</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>TCGGAGCAGTTAGATTAAAGAAAGATGGTCAAACCGAATATGTTGCTGTTTCAGG</t>
+          <t>TTGAAAAGCGTATACTGTTGACCATTGATCGATACCAATTCTCACCACATAA</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>MaLionG_myco-21</t>
+          <t>UhpT_D388CM_F0-28</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6760,7 +6760,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>GTAATAGTTACTTGATCCGGTCTAACCTCCACGTTCCCACCTGAAACAGCAACATATTC</t>
+          <t>CAACAGTATACGCTTTTCAAGAATTAAAATTATCGAAAGCTGTTGCTATTC</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>MaLionG_myco-22</t>
+          <t>UhpT_D388CM_F0-29</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6782,7 +6782,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ACCGGATCAAGTAACTATTACAGCTCAAGCTGCTGAAACTGCTGAAGGTATTGATAAGG</t>
+          <t>TGCTTCAAATAAAGTAAATCCTTGAATAGCAACAGCTTTCG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MaLionG_myco-23</t>
+          <t>UhpT_D388CM_F0-30</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CTCTTGTGCTCTTTGTCTTGCCGCTTCTGCTCTTTCCTTATCAATACCTTCAGCA</t>
+          <t>AGGATTTACTTTATTTGAAGCAGGTGCTTTAGTAGGTACTCTATTATGGGGATG</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>MaLionG_myco-24</t>
+          <t>UhpT_D388CM_F0-31</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6826,7 +6826,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>AAGACAAAGAGCACAAGAGCGTCTTAACTCTCAATCTGATGACACAGAT</t>
+          <t>TCGACCATTTGCTAGATCAGATAGCCATCCCCATAATAGAGTACC</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>MaLionG_myco-25</t>
+          <t>UhpT_D388CM_F0-32</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6848,7 +6848,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>TTTAATGCTCTTTGTAAAGCTAACTCTGCTCTACGAATATCTGTGTCATCAGATTGAG</t>
+          <t>GATCTAGCAAATGGTCGACGTGGATTAGTTGCATGTATC</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>MaLionG_myco-26</t>
+          <t>UhpT_D388CM_F0-33</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6870,7 +6870,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TTAGCTTTACAAAGAGCATTAAATAGACTAGATGTTGCAGAAATGAAAGCTTTAA</t>
+          <t>CACCTAAAGTAGCGATAATTAGAGCTAAAGCGATACATGCAACTAATCCAC</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>MaLionG_myco-27</t>
+          <t>UhpT_D388CM_F0-34</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6892,7 +6892,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ATCAGCCATAATATAAACATTATGTGAAAATTCTTTTAAAGCTTTCATTTCTGCAA</t>
+          <t>CTAATTATCGCTACTTTAGGTGTTTATCAACATGCATCAAATGAA</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>MaLionG_myco-28</t>
+          <t>UhpT_D388CM_F0-35</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6914,7 +6914,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ACATAATGTTTATATTATGGCTGATAAGCAAAAAAATGGAATTAAAGTTAACTTCAAAATC</t>
+          <t>AACCTAAAGCGAATAGAGAAGCTAAATAAATATATTCATTTGATGCATGTTGAT</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>MaLionG_myco-29</t>
+          <t>UhpT_D388CM_F0-36</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>CGACCCATCTTCAATGTTATGTCTGATTTTGAAGTTAACTTTAATTCCA</t>
+          <t>TTCTCTATTCGCTTTAGGTTTTTTAGTATTCGGTCCTCAGTTATTAATTGGAGT</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>MaLionG_myco-30</t>
+          <t>UhpT_D388CM_F0-37</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>AACATTGAAGATGGGTCGGTACAACTTGCGGATCACTATCAACAAAACAC</t>
+          <t>TTGCTTTCTTAGGTACAAATCCAACAGCTGCTACTCCAATTAATAACTGAGGA</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>MaLionG_myco-31</t>
+          <t>UhpT_D388CM_F0-38</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6980,7 +6980,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ATAAAACTGGACCATCACCAATAGGAGTGTTTTGTTGATAGTGATCC</t>
+          <t>GATTTGTACCTAAGAAAGCAATTGGAGCAGCTTGCGGGATCAAAGGAACCTTTGCATATCT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>MaLionG_myco-32</t>
+          <t>UhpT_D388CM_F0-39</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7002,7 +7002,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>GGTGATGGTCCAGTTTTATTACCTGATAACCACTATCTTTCATACCAATCAGCA</t>
+          <t>AGTTTAGCAAAAGAATCACCAATTAGATATGCAAAGGTTCCTT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>MaLionG_myco-33</t>
+          <t>UhpT_D388CM_F0-40</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GTACCATATGGTCACGTTTTTCGTTCGGATCTTTTGATAATGCTGATTGGTATGAAAGAT</t>
+          <t>GGTGATTCTTTTGCTAAACTAGGTCTTGGAATGATTGCAGA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>MaLionG_myco-34</t>
+          <t>UhpT_D388CM_F0-41</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AAACGTGACCATATGGTACTTCTTGAATTTGTGACAGCAGCTGGTATTACTTTAG</t>
+          <t>AACCTGTTAAACCAAAAACAGGAGTCCCATCTGCAATCATTCCAAGA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>MaLionG_myco-35</t>
+          <t>UhpT_D388CM_F0-42</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TTATTTGTAAAGTTCATCCATTCCTAAAGTAATACCAGCTGCT</t>
+          <t>TGTTTTTGGTTTAACAGGTTGGGCTGGGACGTTTGCAGCATTAGATATTGCTGCTATCGG</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>MaLionG_myco-36</t>
+          <t>UhpT_D388CM_F0-43</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7090,7 +7090,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>TGTTGAGTGGCGGCGAGTT</t>
+          <t>ATTGCCATAAGACAGATACAACCGATAGCAGCAATATCT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7100,19 +7100,19 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-0</t>
+          <t>UhpT_D388CM_F0-44</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>AACTCGCCGCCACTCAACACCCCGGAGAGTGAAGTCCCGAGC</t>
+          <t>TGTATCTGTCTTATGGCAATTGTTGCTGTAATGGAAGAACGTAAAA</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7122,19 +7122,19 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-1</t>
+          <t>UhpT_D388CM_F0-45</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CACGAATACTGCGAGACCTTGGTCGCGATAAAGCTCGGGACTTCACTCTCC</t>
+          <t>TTAAGCAACAGTTAACTGTTGAATTTTCTTTTCACGTCTGATTTTACGTTCTTCCATTACAG</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7144,19 +7144,19 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-2</t>
+          <t>UhpT_D388CM_F0-46</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CAAGGTCTCGCAGTATTCGTGTCAACGCAAAACCACCCTGAACAACTACAA</t>
+          <t>ATGGTTTCTAAAGGTGAAGAATTATTTACTGGTGTAGTACCTATCC</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7166,19 +7166,19 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-3</t>
+          <t>MaLionG_myco-1</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TAATTTCGAAGGCATCGGTGAATTTTTTGTTGTAGTTGTTCAGGGTGGTTTT</t>
+          <t>TCACCATCAAGTTCAACAAGGATAGGTACTACACCAGT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7188,19 +7188,19 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-4</t>
+          <t>MaLionG_myco-2</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ATTCACCGATGCCTTCGAAATTATGGCCGAAAACTATGAATTTAAAGAA</t>
+          <t>TTGTTGAACTTGATGGTGATGTTAACGGACACAAATTTTCTGTTTCAGGGGA</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7210,19 +7210,19 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-5</t>
+          <t>MaLionG_myco-3</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CGCGCAGAAATTCAAGACAAAAAATCTCGTTTTCTTTAAATTCATAGTTTTCGGCCA</t>
+          <t>AGTTTACCGTAAGTAGCATCACCTTCTCCTTCCCCTGAAACAGAAAATT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7232,19 +7232,19 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-6</t>
+          <t>MaLionG_myco-4</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>TTTTGTCTTGAATTTCTGCGCGCAGCGTCCCTTCTGAAATCACTGCCATTCCCGG</t>
+          <t>GATGCTACTTACGGTAAACTAACTTTAAAATTTATTTGTACCACGGG</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7254,19 +7254,19 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-7</t>
+          <t>MaLionG_myco-5</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>CATGGCAGGCCCTGGATATCTTTCATGCGCGTAACCGGGAATGGCAGTGATTTC</t>
+          <t>GTAGTAACTAAGGTTGGCCAAGGTACTGGAAGCTTACCCGTGGTACAAATAAATTTT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7276,19 +7276,19 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-8</t>
+          <t>MaLionG_myco-6</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ATATCCAGGGCCTGCCATGCATGGGTGACCAGGTCCGTGATATTATTGAA</t>
+          <t>GGCCAACCTTAGTTACTACATTTGGTTACGGATTAATGTGTTTTGCAAGATATCCTG</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7298,19 +7298,19 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-9</t>
+          <t>MaLionG_myco-7</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>GGACGATTCACCTTCTTCAATGATTTCTTCAATAATATCACGGACCTGGTC</t>
+          <t>ATTGCAGATTTAAAAAAATCATGTTGTTTCATGTGGTCAGGATATCTTGCAAAACAC</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7320,19 +7320,19 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-10</t>
+          <t>MaLionG_myco-8</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>TCATTGAAGAAGGTGAATCGTCCCGCGTCAAAGAGGTGCTGAATGATGAG</t>
+          <t>ACATGATTTTTTTAAATCTGCAATGCCAGAAGGGTATGTTCAAGAAAGAACTATCTT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7342,19 +7342,19 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-11</t>
+          <t>MaLionG_myco-9</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>GCCAAAAACAGAGGTAAATTGTTTAAAGCTTTTGTAACGCTCATCATTCAGCACCTCTTTGA</t>
+          <t>CTTCAGCACGAGTCTTATAATTCCCATCGTCTTTAAAAAAGATAGTTCTTTCTTGAACATAC</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7364,19 +7364,19 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-12</t>
+          <t>MaLionG_myco-10</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>TTTAAACAATTTACCTCTGTTTTTGGCGTCGGCGTTAAAACATCAGAAAAATGGTACCGCATG</t>
+          <t>TTATAAGACTCGTGCTGAAGTTAAGTTCGAAGGAGATACACTTGTTAATAGAATTGA</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7386,19 +7386,19 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-13</t>
+          <t>MaLionG_myco-11</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>TCCGCTTTCACTTCTTCAACGGTACGCAGGCCCATGCGGTACCATTTTTCTGATG</t>
+          <t>CTTCCTTAAAGTCAATACCCTTTAATTCAATTCTATTAACAAGTGTATCTC</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7408,19 +7408,19 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-14</t>
+          <t>MaLionG_myco-12</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CGTTGAAGAAGTGAAAGCGGATAAAACCCTGAAGCTCAGTAAAATGCAAAA</t>
+          <t>AGGGTATTGACTTTAAGGAAGACGGAAATATCTTAGGTCACAAATTAGAATAT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7430,19 +7430,19 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-15</t>
+          <t>MaLionG_myco-13</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>CGCACGACACAAGATCTTCATAATACAGAAAACCCGCTTTTTGCATTTTACTGAGCTTCAGG</t>
+          <t>AGTTTTCATACCTCTCCAATTATATTCTAATTTGTGACCTAAGATATT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7452,19 +7452,19 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-16</t>
+          <t>MaLionG_myco-14</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ATGAAGATCTTGTGTCGTGCGTGTCAAAAGCCGAAGCAGACGCCGTGAGTCTCAT</t>
+          <t>AATTGGAGAGGTATGAAAACTGTGAAAGTAAACATTACGACACCA</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7474,19 +7474,19 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-17</t>
+          <t>MaLionG_myco-15</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>GCAGGAAGGTACAAACGGTGTTTTTGACAATGAGACTCACGGCGTCTG</t>
+          <t>TCAGCATCATAAACTGGTCCATCTGGTGTCGTAATGTTTACTT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7496,19 +7496,19 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-18</t>
+          <t>MaLionG_myco-16</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CACCGTTTGTACCTTCCTGCCGGACGCGCTGGTGACGATTACCGGTGG</t>
+          <t>GACCAGTTTATGATGCTGATATCGAAATGGTATCAGTTAGAG</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7518,19 +7518,19 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-19</t>
+          <t>MaLionG_myco-17</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ATCGTGACCAATTTTTTTGCCGCGACGAAAGCCACCGGTAATCGTCACCA</t>
+          <t>AATTCCTAGATCACCTGATTCAGCTCTAACTGATACCATTTCGA</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7540,19 +7540,19 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-20</t>
+          <t>MaLionG_myco-18</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>CGGCAAAAAAATTGGTCACGATATCGACTTTCTCATTACCAACCCAGGCCC</t>
+          <t>GAATCAGGTGATCTAGGAATTTTACCTGGTCATATTCCGACAAA</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7562,19 +7562,19 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-21</t>
+          <t>MaLionG_myco-19</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ATGCAGCAGCTCGTCATCTTCGCGCGGGCCTGGGTTGGTAATGA</t>
+          <t>CTTTAATCTAACTGCTCCGATTTTTAAAGGTGCTTTTGTCGGAATATGACCAG</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7584,19 +7584,19 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-22</t>
+          <t>MaLionG_myco-20</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>AGATGACGAGCTGCTGCATAAGGGTCTGTTGTTGTACTGTGATAT</t>
+          <t>TCGGAGCAGTTAGATTAAAGAAAGATGGTCAAACCGAATATGTTGCTGTTTCAGG</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7606,19 +7606,19 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-23</t>
+          <t>MaLionG_myco-21</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>GCTCGGCAGCTGTTCTTTCACAAATGTAGATTCAATAATATCACAGTACAACAACAGACCC</t>
+          <t>GTAATAGTTACTTGATCCGGTCTAACCTCCACGTTCCCACCTGAAACAGCAACATATTC</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7628,19 +7628,19 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-24</t>
+          <t>MaLionG_myco-22</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>GAAAGAACAGCTGCCGAGCCGCAAAGTGGACGCCATGGATC</t>
+          <t>ACCGGATCAAGTAACTATTACAGCTCAAGCTGCTGAAACTGCTGAAGGTATTGATAAGG</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7650,19 +7650,19 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-25</t>
+          <t>MaLionG_myco-23</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>GTACAACTTCAGAATTGCGAAACATTTCTGGAAATGATCCATGGCGTCCACTTTG</t>
+          <t>CTCTTGTGCTCTTTGTCTTGCCGCTTCTGCTCTTTCCTTATCAATACCTTCAGCA</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7672,19 +7672,19 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-26</t>
+          <t>MaLionG_myco-24</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>TGTTTCGCAATTCTGAAGTTGTACCAACCACGTGTTGATAACTCGTCGTACAATACCTCAAAA</t>
+          <t>AAGACAAAGAGCACAAGAGCGTCTTAACTCTCAATCTGATGACACAGAT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7694,19 +7694,19 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-27</t>
+          <t>MaLionG_myco-25</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TCCAGTCTTTCACCTCCGCCATATCCAATTTTTTTGAGGTATTGTACGACGAGTT</t>
+          <t>TTTAATGCTCTTTGTAAAGCTAACTCTGCTCTACGAATATCTGTGTCATCAGATTGAG</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7716,19 +7716,19 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-28</t>
+          <t>MaLionG_myco-26</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>GCGGAGGTGAAAGACTGGAAGGCGATTCGTGTTGATCTGGTTATTAC</t>
+          <t>TTAGCTTTACAAAGAGCATTAAATAGACTAGATGTTGCAGAAATGAAAGCTTTAA</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7738,19 +7738,19 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-29</t>
+          <t>MaLionG_myco-27</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>GTACGCGTACTGCTCAAACGGTGTAATAACCAGATCAACACGAATCG</t>
+          <t>ATCAGCCATAATATAAACATTATGTGAAAATTCTTTTAAAGCTTTCATTTCTGCAA</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7760,19 +7760,19 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-30</t>
+          <t>MaLionG_myco-28</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CGTTTGAGCAGTACGCGTACGCATTGCTGGGCTGGACCGGTTCTCGTCAGTT</t>
+          <t>ACATAATGTTTATATTATGGCTGATAAGCAAAAAAATGGAATTAAAGTTAACTTCAAAATC</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7782,19 +7782,19 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-31</t>
+          <t>MaLionG_myco-29</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>TACGTTCGTGGGTTGCGTAACGACGCAGGTCACGACCAAACTGACGAGAACCGGTCC</t>
+          <t>CGACCCATCTTCAATGTTATGTCTGATTTTGAAGTTAACTTTAATTCCA</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7804,19 +7804,19 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-32</t>
+          <t>MaLionG_myco-30</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>TACGCAACCCACGAACGTAAAATGATCCTGGATAACCACGC</t>
+          <t>AACATTGAAGATGGGTCGGTACAACTTGCGGATCACTATCAACAAAACAC</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7826,19 +7826,19 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-33</t>
+          <t>MaLionG_myco-31</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CCCGCTTTCAGGAAAATACGTTTACGACGGTCATACAGCGCGTGGTTATCCAGGATCATTT</t>
+          <t>ATAAAACTGGACCATCACCAATAGGAGTGTTTTGTTGATAGTGATCC</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7848,19 +7848,19 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-34</t>
+          <t>MaLionG_myco-32</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ACGTATTTTCCTGAAAGCGGGTAGCGAGGAAGAAATTTTTGCGCAT</t>
+          <t>GGTGATGGTCCAGTTTTATTACCTGATAACCACTATCTTTCATACCAATCAGCA</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7870,19 +7870,19 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-35</t>
+          <t>MaLionG_myco-33</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>TCCCACGGTTCCACATAGTCCAGACCCAGATGCGCAAAAATTTCTTCCTCG</t>
+          <t>GTACCATATGGTCACGTTTTTCGTTCGGATCTTTTGATAATGCTGATTGGTATGAAAGAT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7892,19 +7892,19 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-36</t>
+          <t>MaLionG_myco-34</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>GACTATGTGGAACCGTGGGAACGCAACGCCGCGAATGCA</t>
+          <t>AAACGTGACCATATGGTACTTCTTGAATTTGTGACAGCAGCTGGTATTACTTTAG</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7914,19 +7914,19 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-37</t>
+          <t>MaLionG_myco-35</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>TGCATTCGCGGCGTTGCGT</t>
+          <t>TTATTTGTAAAGTTCATCCATTCCTAAAGTAATACCAGCTGCT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7936,16 +7936,16 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Unnamed sequence_F0-38</t>
+          <t>MaLionG_myco-36</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>FISUNOV</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>